--- a/src/Input_Files/province_names/great_britain_provinces.xlsx
+++ b/src/Input_Files/province_names/great_britain_provinces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\province_names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\great_britain_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC14949-4513-4E83-B39A-27B1E239E8E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB410B-8AEF-4F2E-BBC9-731493C37E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provinces" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="607">
   <si>
     <t>RGB</t>
   </si>
@@ -1829,6 +1829,18 @@
   </si>
   <si>
     <t>Tyrone</t>
+  </si>
+  <si>
+    <t>dundalk</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>irish_louth</t>
+  </si>
+  <si>
+    <t>berwick_upon_tweed</t>
   </si>
 </sst>
 </file>
@@ -1891,10 +1903,160 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1959,7 +2121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2281,20 +2443,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD1742"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2324,12 +2486,17 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2339,12 +2506,17 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2354,12 +2526,17 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E4"/>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2369,12 +2546,17 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E5"/>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2384,12 +2566,17 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E6"/>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2399,12 +2586,17 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="E7"/>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2414,12 +2606,17 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="E8"/>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2429,12 +2626,17 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="E9"/>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2444,12 +2646,17 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="E10"/>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2459,12 +2666,17 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="E11"/>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2474,12 +2686,17 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="E12"/>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2489,12 +2706,17 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="E13"/>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2504,12 +2726,17 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="E14"/>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2519,12 +2746,17 @@
       <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="E15"/>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2534,12 +2766,17 @@
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="E16"/>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2549,12 +2786,17 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="E17"/>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2564,12 +2806,17 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="E18"/>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2579,12 +2826,17 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="E19"/>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2594,12 +2846,17 @@
       <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="E20"/>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2609,12 +2866,17 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="E21"/>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2624,12 +2886,17 @@
       <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="E22"/>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2639,12 +2906,17 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="E23"/>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -2654,12 +2926,17 @@
       <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="E24"/>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -2669,12 +2946,17 @@
       <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="E25"/>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -2684,12 +2966,17 @@
       <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="E26"/>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
       <c r="F26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2699,12 +2986,17 @@
       <c r="C27" t="s">
         <v>84</v>
       </c>
-      <c r="E27"/>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
       <c r="F27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -2714,12 +3006,17 @@
       <c r="C28" t="s">
         <v>87</v>
       </c>
-      <c r="E28"/>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
       <c r="F28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2729,12 +3026,17 @@
       <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="E29"/>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -2744,12 +3046,17 @@
       <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="E30"/>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2759,12 +3066,17 @@
       <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="E31"/>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
       <c r="F31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -2774,12 +3086,17 @@
       <c r="C32" t="s">
         <v>99</v>
       </c>
-      <c r="E32"/>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
       <c r="F32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2789,12 +3106,17 @@
       <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="E33"/>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
       <c r="F33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2804,12 +3126,17 @@
       <c r="C34" t="s">
         <v>105</v>
       </c>
-      <c r="E34"/>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -2819,12 +3146,17 @@
       <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="E35"/>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2834,12 +3166,17 @@
       <c r="C36" t="s">
         <v>111</v>
       </c>
-      <c r="E36"/>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
       <c r="F36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -2849,12 +3186,17 @@
       <c r="C37" t="s">
         <v>114</v>
       </c>
-      <c r="E37"/>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
       <c r="F37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2864,12 +3206,17 @@
       <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="E38"/>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
       <c r="F38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -2879,12 +3226,17 @@
       <c r="C39" t="s">
         <v>120</v>
       </c>
-      <c r="E39"/>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
       <c r="F39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -2894,12 +3246,17 @@
       <c r="C40" t="s">
         <v>123</v>
       </c>
-      <c r="E40"/>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
       <c r="F40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -2909,12 +3266,17 @@
       <c r="C41" t="s">
         <v>126</v>
       </c>
-      <c r="E41"/>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
       <c r="F41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -2924,12 +3286,17 @@
       <c r="C42" t="s">
         <v>129</v>
       </c>
-      <c r="E42"/>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
       <c r="F42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -2939,12 +3306,17 @@
       <c r="C43" t="s">
         <v>132</v>
       </c>
-      <c r="E43"/>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
       <c r="F43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2954,12 +3326,17 @@
       <c r="C44" t="s">
         <v>135</v>
       </c>
-      <c r="E44"/>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -2969,12 +3346,17 @@
       <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="E45"/>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
       <c r="F45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -2984,12 +3366,17 @@
       <c r="C46" t="s">
         <v>141</v>
       </c>
-      <c r="E46"/>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
+        <v>141</v>
+      </c>
       <c r="F46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -2999,12 +3386,17 @@
       <c r="C47" t="s">
         <v>144</v>
       </c>
-      <c r="E47"/>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
       <c r="F47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -3014,12 +3406,17 @@
       <c r="C48" t="s">
         <v>147</v>
       </c>
-      <c r="E48"/>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
       <c r="F48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -3029,12 +3426,17 @@
       <c r="C49" t="s">
         <v>150</v>
       </c>
-      <c r="E49"/>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
       <c r="F49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -3044,12 +3446,17 @@
       <c r="C50" t="s">
         <v>153</v>
       </c>
-      <c r="E50"/>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
       <c r="F50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -3059,12 +3466,17 @@
       <c r="C51" t="s">
         <v>156</v>
       </c>
-      <c r="E51"/>
+      <c r="D51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" t="s">
+        <v>156</v>
+      </c>
       <c r="F51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -3074,12 +3486,17 @@
       <c r="C52" t="s">
         <v>159</v>
       </c>
-      <c r="E52"/>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" t="s">
+        <v>159</v>
+      </c>
       <c r="F52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -3089,12 +3506,17 @@
       <c r="C53" t="s">
         <v>162</v>
       </c>
-      <c r="E53"/>
+      <c r="D53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
       <c r="F53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3104,12 +3526,17 @@
       <c r="C54" t="s">
         <v>165</v>
       </c>
-      <c r="E54"/>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
       <c r="F54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -3119,12 +3546,17 @@
       <c r="C55" t="s">
         <v>168</v>
       </c>
-      <c r="E55"/>
+      <c r="D55" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" t="s">
+        <v>168</v>
+      </c>
       <c r="F55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -3134,12 +3566,17 @@
       <c r="C56" t="s">
         <v>171</v>
       </c>
-      <c r="E56"/>
+      <c r="D56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
       <c r="F56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -3149,12 +3586,17 @@
       <c r="C57" t="s">
         <v>174</v>
       </c>
-      <c r="E57"/>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
+        <v>174</v>
+      </c>
       <c r="F57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -3164,12 +3606,17 @@
       <c r="C58" t="s">
         <v>177</v>
       </c>
-      <c r="E58"/>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
       <c r="F58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -3179,12 +3626,17 @@
       <c r="C59" t="s">
         <v>180</v>
       </c>
-      <c r="E59"/>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>180</v>
+      </c>
       <c r="F59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -3194,12 +3646,17 @@
       <c r="C60" t="s">
         <v>183</v>
       </c>
-      <c r="E60"/>
+      <c r="D60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" t="s">
+        <v>183</v>
+      </c>
       <c r="F60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -3209,12 +3666,17 @@
       <c r="C61" t="s">
         <v>186</v>
       </c>
-      <c r="E61"/>
+      <c r="D61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" t="s">
+        <v>186</v>
+      </c>
       <c r="F61" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -3224,12 +3686,17 @@
       <c r="C62" t="s">
         <v>189</v>
       </c>
-      <c r="E62"/>
+      <c r="D62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>189</v>
+      </c>
       <c r="F62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -3239,12 +3706,17 @@
       <c r="C63" t="s">
         <v>192</v>
       </c>
-      <c r="E63"/>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
       <c r="F63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -3254,12 +3726,17 @@
       <c r="C64" t="s">
         <v>195</v>
       </c>
-      <c r="E64"/>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" t="s">
+        <v>195</v>
+      </c>
       <c r="F64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -3269,12 +3746,17 @@
       <c r="C65" t="s">
         <v>198</v>
       </c>
-      <c r="E65"/>
+      <c r="D65" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
       <c r="F65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -3284,12 +3766,17 @@
       <c r="C66" t="s">
         <v>201</v>
       </c>
-      <c r="E66"/>
+      <c r="D66" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>201</v>
+      </c>
       <c r="F66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -3299,12 +3786,17 @@
       <c r="C67" t="s">
         <v>204</v>
       </c>
-      <c r="E67"/>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" t="s">
+        <v>204</v>
+      </c>
       <c r="F67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -3314,12 +3806,17 @@
       <c r="C68" t="s">
         <v>207</v>
       </c>
-      <c r="E68"/>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" t="s">
+        <v>207</v>
+      </c>
       <c r="F68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -3329,12 +3826,17 @@
       <c r="C69" t="s">
         <v>210</v>
       </c>
-      <c r="E69"/>
+      <c r="D69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>210</v>
+      </c>
       <c r="F69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -3344,27 +3846,37 @@
       <c r="C70" t="s">
         <v>213</v>
       </c>
-      <c r="E70"/>
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" t="s">
+        <v>213</v>
+      </c>
       <c r="F70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>606</v>
       </c>
       <c r="C71" t="s">
         <v>216</v>
       </c>
-      <c r="E71"/>
+      <c r="D71" t="s">
+        <v>606</v>
+      </c>
+      <c r="E71" t="s">
+        <v>216</v>
+      </c>
       <c r="F71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -3374,12 +3886,17 @@
       <c r="C72" t="s">
         <v>219</v>
       </c>
-      <c r="E72"/>
+      <c r="D72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" t="s">
+        <v>219</v>
+      </c>
       <c r="F72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -3389,12 +3906,17 @@
       <c r="C73" t="s">
         <v>222</v>
       </c>
-      <c r="E73"/>
+      <c r="D73" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" t="s">
+        <v>222</v>
+      </c>
       <c r="F73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -3404,12 +3926,17 @@
       <c r="C74" t="s">
         <v>225</v>
       </c>
-      <c r="E74"/>
+      <c r="D74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" t="s">
+        <v>225</v>
+      </c>
       <c r="F74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>226</v>
       </c>
@@ -3419,12 +3946,17 @@
       <c r="C75" t="s">
         <v>228</v>
       </c>
-      <c r="E75"/>
+      <c r="D75" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" t="s">
+        <v>228</v>
+      </c>
       <c r="F75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -3434,12 +3966,17 @@
       <c r="C76" t="s">
         <v>231</v>
       </c>
-      <c r="E76"/>
+      <c r="D76" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" t="s">
+        <v>231</v>
+      </c>
       <c r="F76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -3449,12 +3986,17 @@
       <c r="C77" t="s">
         <v>234</v>
       </c>
-      <c r="E77"/>
+      <c r="D77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" t="s">
+        <v>234</v>
+      </c>
       <c r="F77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -3464,12 +4006,17 @@
       <c r="C78" t="s">
         <v>237</v>
       </c>
-      <c r="E78"/>
+      <c r="D78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
       <c r="F78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -3479,12 +4026,17 @@
       <c r="C79" t="s">
         <v>240</v>
       </c>
-      <c r="E79"/>
+      <c r="D79" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
       <c r="F79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -3494,12 +4046,17 @@
       <c r="C80" t="s">
         <v>243</v>
       </c>
-      <c r="E80"/>
+      <c r="D80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" t="s">
+        <v>243</v>
+      </c>
       <c r="F80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -3509,12 +4066,17 @@
       <c r="C81" t="s">
         <v>246</v>
       </c>
-      <c r="E81"/>
+      <c r="D81" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" t="s">
+        <v>246</v>
+      </c>
       <c r="F81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -3524,12 +4086,17 @@
       <c r="C82" t="s">
         <v>249</v>
       </c>
-      <c r="E82"/>
+      <c r="D82" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" t="s">
+        <v>249</v>
+      </c>
       <c r="F82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -3539,12 +4106,17 @@
       <c r="C83" t="s">
         <v>252</v>
       </c>
-      <c r="E83"/>
+      <c r="D83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
+        <v>252</v>
+      </c>
       <c r="F83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -3554,12 +4126,17 @@
       <c r="C84" t="s">
         <v>255</v>
       </c>
-      <c r="E84"/>
+      <c r="D84" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" t="s">
+        <v>255</v>
+      </c>
       <c r="F84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -3569,12 +4146,17 @@
       <c r="C85" t="s">
         <v>258</v>
       </c>
-      <c r="E85"/>
+      <c r="D85" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" t="s">
+        <v>258</v>
+      </c>
       <c r="F85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -3584,12 +4166,17 @@
       <c r="C86" t="s">
         <v>261</v>
       </c>
-      <c r="E86"/>
+      <c r="D86" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" t="s">
+        <v>261</v>
+      </c>
       <c r="F86" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -3599,12 +4186,17 @@
       <c r="C87" t="s">
         <v>264</v>
       </c>
-      <c r="E87"/>
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
       <c r="F87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>265</v>
       </c>
@@ -3614,12 +4206,17 @@
       <c r="C88" t="s">
         <v>267</v>
       </c>
-      <c r="E88"/>
+      <c r="D88" t="s">
+        <v>266</v>
+      </c>
+      <c r="E88" t="s">
+        <v>267</v>
+      </c>
       <c r="F88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -3629,12 +4226,17 @@
       <c r="C89" t="s">
         <v>270</v>
       </c>
-      <c r="E89"/>
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89" t="s">
+        <v>270</v>
+      </c>
       <c r="F89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>271</v>
       </c>
@@ -3644,12 +4246,17 @@
       <c r="C90" t="s">
         <v>273</v>
       </c>
-      <c r="E90"/>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+      <c r="E90" t="s">
+        <v>273</v>
+      </c>
       <c r="F90" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -3659,12 +4266,17 @@
       <c r="C91" t="s">
         <v>276</v>
       </c>
-      <c r="E91"/>
+      <c r="D91" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" t="s">
+        <v>276</v>
+      </c>
       <c r="F91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -3674,12 +4286,17 @@
       <c r="C92" t="s">
         <v>279</v>
       </c>
-      <c r="E92"/>
+      <c r="D92" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" t="s">
+        <v>279</v>
+      </c>
       <c r="F92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -3689,12 +4306,17 @@
       <c r="C93" t="s">
         <v>282</v>
       </c>
-      <c r="E93"/>
+      <c r="D93" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93" t="s">
+        <v>282</v>
+      </c>
       <c r="F93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>283</v>
       </c>
@@ -3704,12 +4326,17 @@
       <c r="C94" t="s">
         <v>285</v>
       </c>
-      <c r="E94"/>
+      <c r="D94" t="s">
+        <v>284</v>
+      </c>
+      <c r="E94" t="s">
+        <v>285</v>
+      </c>
       <c r="F94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -3719,12 +4346,17 @@
       <c r="C95" t="s">
         <v>288</v>
       </c>
-      <c r="E95"/>
+      <c r="D95" t="s">
+        <v>287</v>
+      </c>
+      <c r="E95" t="s">
+        <v>288</v>
+      </c>
       <c r="F95" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -3734,12 +4366,17 @@
       <c r="C96" t="s">
         <v>291</v>
       </c>
-      <c r="E96"/>
+      <c r="D96" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96" t="s">
+        <v>291</v>
+      </c>
       <c r="F96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>292</v>
       </c>
@@ -3749,12 +4386,17 @@
       <c r="C97" t="s">
         <v>294</v>
       </c>
-      <c r="E97"/>
+      <c r="D97" t="s">
+        <v>293</v>
+      </c>
+      <c r="E97" t="s">
+        <v>294</v>
+      </c>
       <c r="F97" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -3764,12 +4406,17 @@
       <c r="C98" t="s">
         <v>297</v>
       </c>
-      <c r="E98"/>
+      <c r="D98" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" t="s">
+        <v>297</v>
+      </c>
       <c r="F98" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>298</v>
       </c>
@@ -3779,12 +4426,17 @@
       <c r="C99" t="s">
         <v>300</v>
       </c>
-      <c r="E99"/>
+      <c r="D99" t="s">
+        <v>299</v>
+      </c>
+      <c r="E99" t="s">
+        <v>300</v>
+      </c>
       <c r="F99" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>301</v>
       </c>
@@ -3794,12 +4446,17 @@
       <c r="C100" t="s">
         <v>303</v>
       </c>
-      <c r="E100"/>
+      <c r="D100" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" t="s">
+        <v>303</v>
+      </c>
       <c r="F100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>304</v>
       </c>
@@ -3809,12 +4466,17 @@
       <c r="C101" t="s">
         <v>216</v>
       </c>
-      <c r="E101"/>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" t="s">
+        <v>216</v>
+      </c>
       <c r="F101" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -3824,12 +4486,17 @@
       <c r="C102" t="s">
         <v>307</v>
       </c>
-      <c r="E102"/>
+      <c r="D102" t="s">
+        <v>306</v>
+      </c>
+      <c r="E102" t="s">
+        <v>307</v>
+      </c>
       <c r="F102" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -3839,12 +4506,17 @@
       <c r="C103" t="s">
         <v>310</v>
       </c>
-      <c r="E103"/>
+      <c r="D103" t="s">
+        <v>309</v>
+      </c>
+      <c r="E103" t="s">
+        <v>310</v>
+      </c>
       <c r="F103" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -3854,12 +4526,17 @@
       <c r="C104" t="s">
         <v>313</v>
       </c>
-      <c r="E104"/>
+      <c r="D104" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" t="s">
+        <v>313</v>
+      </c>
       <c r="F104" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -3869,12 +4546,17 @@
       <c r="C105" t="s">
         <v>316</v>
       </c>
-      <c r="E105"/>
+      <c r="D105" t="s">
+        <v>315</v>
+      </c>
+      <c r="E105" t="s">
+        <v>316</v>
+      </c>
       <c r="F105" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -3884,12 +4566,17 @@
       <c r="C106" t="s">
         <v>319</v>
       </c>
-      <c r="E106"/>
+      <c r="D106" t="s">
+        <v>318</v>
+      </c>
+      <c r="E106" t="s">
+        <v>319</v>
+      </c>
       <c r="F106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -3899,12 +4586,17 @@
       <c r="C107" t="s">
         <v>322</v>
       </c>
-      <c r="E107"/>
+      <c r="D107" t="s">
+        <v>321</v>
+      </c>
+      <c r="E107" t="s">
+        <v>322</v>
+      </c>
       <c r="F107" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>323</v>
       </c>
@@ -3914,12 +4606,17 @@
       <c r="C108" t="s">
         <v>325</v>
       </c>
-      <c r="E108"/>
+      <c r="D108" t="s">
+        <v>324</v>
+      </c>
+      <c r="E108" t="s">
+        <v>325</v>
+      </c>
       <c r="F108" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -3929,12 +4626,17 @@
       <c r="C109" t="s">
         <v>328</v>
       </c>
-      <c r="E109"/>
+      <c r="D109" t="s">
+        <v>327</v>
+      </c>
+      <c r="E109" t="s">
+        <v>328</v>
+      </c>
       <c r="F109" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>329</v>
       </c>
@@ -3944,12 +4646,17 @@
       <c r="C110" t="s">
         <v>331</v>
       </c>
-      <c r="E110"/>
+      <c r="D110" t="s">
+        <v>330</v>
+      </c>
+      <c r="E110" t="s">
+        <v>331</v>
+      </c>
       <c r="F110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -3959,12 +4666,17 @@
       <c r="C111" t="s">
         <v>334</v>
       </c>
-      <c r="E111"/>
+      <c r="D111" t="s">
+        <v>333</v>
+      </c>
+      <c r="E111" t="s">
+        <v>334</v>
+      </c>
       <c r="F111" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>335</v>
       </c>
@@ -3974,12 +4686,17 @@
       <c r="C112" t="s">
         <v>337</v>
       </c>
-      <c r="E112"/>
+      <c r="D112" t="s">
+        <v>336</v>
+      </c>
+      <c r="E112" t="s">
+        <v>337</v>
+      </c>
       <c r="F112" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -3989,12 +4706,17 @@
       <c r="C113" t="s">
         <v>340</v>
       </c>
-      <c r="E113"/>
+      <c r="D113" t="s">
+        <v>339</v>
+      </c>
+      <c r="E113" t="s">
+        <v>340</v>
+      </c>
       <c r="F113" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>341</v>
       </c>
@@ -4004,12 +4726,17 @@
       <c r="C114" t="s">
         <v>343</v>
       </c>
-      <c r="E114"/>
+      <c r="D114" t="s">
+        <v>342</v>
+      </c>
+      <c r="E114" t="s">
+        <v>343</v>
+      </c>
       <c r="F114" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>344</v>
       </c>
@@ -4019,12 +4746,17 @@
       <c r="C115" t="s">
         <v>346</v>
       </c>
-      <c r="E115"/>
+      <c r="D115" t="s">
+        <v>345</v>
+      </c>
+      <c r="E115" t="s">
+        <v>346</v>
+      </c>
       <c r="F115" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>347</v>
       </c>
@@ -4034,12 +4766,17 @@
       <c r="C116" t="s">
         <v>349</v>
       </c>
-      <c r="E116"/>
+      <c r="D116" t="s">
+        <v>348</v>
+      </c>
+      <c r="E116" t="s">
+        <v>349</v>
+      </c>
       <c r="F116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>350</v>
       </c>
@@ -4049,12 +4786,17 @@
       <c r="C117" t="s">
         <v>352</v>
       </c>
-      <c r="E117"/>
+      <c r="D117" t="s">
+        <v>351</v>
+      </c>
+      <c r="E117" t="s">
+        <v>352</v>
+      </c>
       <c r="F117" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>353</v>
       </c>
@@ -4064,12 +4806,17 @@
       <c r="C118" t="s">
         <v>355</v>
       </c>
-      <c r="E118"/>
+      <c r="D118" t="s">
+        <v>354</v>
+      </c>
+      <c r="E118" t="s">
+        <v>355</v>
+      </c>
       <c r="F118" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>356</v>
       </c>
@@ -4079,12 +4826,17 @@
       <c r="C119" t="s">
         <v>358</v>
       </c>
-      <c r="E119"/>
+      <c r="D119" t="s">
+        <v>357</v>
+      </c>
+      <c r="E119" t="s">
+        <v>358</v>
+      </c>
       <c r="F119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>359</v>
       </c>
@@ -4094,12 +4846,17 @@
       <c r="C120" t="s">
         <v>361</v>
       </c>
-      <c r="E120"/>
+      <c r="D120" t="s">
+        <v>360</v>
+      </c>
+      <c r="E120" t="s">
+        <v>361</v>
+      </c>
       <c r="F120" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>362</v>
       </c>
@@ -4109,12 +4866,17 @@
       <c r="C121" t="s">
         <v>364</v>
       </c>
-      <c r="E121"/>
+      <c r="D121" t="s">
+        <v>363</v>
+      </c>
+      <c r="E121" t="s">
+        <v>364</v>
+      </c>
       <c r="F121" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>365</v>
       </c>
@@ -4124,12 +4886,17 @@
       <c r="C122" t="s">
         <v>367</v>
       </c>
-      <c r="E122"/>
+      <c r="D122" t="s">
+        <v>366</v>
+      </c>
+      <c r="E122" t="s">
+        <v>367</v>
+      </c>
       <c r="F122" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>368</v>
       </c>
@@ -4139,12 +4906,17 @@
       <c r="C123" t="s">
         <v>370</v>
       </c>
-      <c r="E123"/>
+      <c r="D123" t="s">
+        <v>369</v>
+      </c>
+      <c r="E123" t="s">
+        <v>370</v>
+      </c>
       <c r="F123" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>371</v>
       </c>
@@ -4154,12 +4926,17 @@
       <c r="C124" t="s">
         <v>373</v>
       </c>
-      <c r="E124"/>
+      <c r="D124" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" t="s">
+        <v>373</v>
+      </c>
       <c r="F124" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -4169,12 +4946,17 @@
       <c r="C125" t="s">
         <v>376</v>
       </c>
-      <c r="E125"/>
+      <c r="D125" t="s">
+        <v>375</v>
+      </c>
+      <c r="E125" t="s">
+        <v>376</v>
+      </c>
       <c r="F125" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>377</v>
       </c>
@@ -4184,12 +4966,17 @@
       <c r="C126" t="s">
         <v>379</v>
       </c>
-      <c r="E126"/>
+      <c r="D126" t="s">
+        <v>378</v>
+      </c>
+      <c r="E126" t="s">
+        <v>379</v>
+      </c>
       <c r="F126" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>380</v>
       </c>
@@ -4199,12 +4986,17 @@
       <c r="C127" t="s">
         <v>382</v>
       </c>
-      <c r="E127"/>
+      <c r="D127" t="s">
+        <v>381</v>
+      </c>
+      <c r="E127" t="s">
+        <v>382</v>
+      </c>
       <c r="F127" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>383</v>
       </c>
@@ -4214,12 +5006,17 @@
       <c r="C128" t="s">
         <v>385</v>
       </c>
-      <c r="E128"/>
+      <c r="D128" t="s">
+        <v>384</v>
+      </c>
+      <c r="E128" t="s">
+        <v>385</v>
+      </c>
       <c r="F128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>386</v>
       </c>
@@ -4229,12 +5026,17 @@
       <c r="C129" t="s">
         <v>388</v>
       </c>
-      <c r="E129"/>
+      <c r="D129" t="s">
+        <v>387</v>
+      </c>
+      <c r="E129" t="s">
+        <v>388</v>
+      </c>
       <c r="F129" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>389</v>
       </c>
@@ -4244,12 +5046,17 @@
       <c r="C130" t="s">
         <v>391</v>
       </c>
-      <c r="E130"/>
+      <c r="D130" t="s">
+        <v>390</v>
+      </c>
+      <c r="E130" t="s">
+        <v>391</v>
+      </c>
       <c r="F130" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>392</v>
       </c>
@@ -4259,12 +5066,17 @@
       <c r="C131" t="s">
         <v>394</v>
       </c>
-      <c r="E131"/>
+      <c r="D131" t="s">
+        <v>393</v>
+      </c>
+      <c r="E131" t="s">
+        <v>394</v>
+      </c>
       <c r="F131" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>395</v>
       </c>
@@ -4274,12 +5086,17 @@
       <c r="C132" t="s">
         <v>397</v>
       </c>
-      <c r="E132"/>
+      <c r="D132" t="s">
+        <v>396</v>
+      </c>
+      <c r="E132" t="s">
+        <v>397</v>
+      </c>
       <c r="F132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>398</v>
       </c>
@@ -4289,12 +5106,17 @@
       <c r="C133" t="s">
         <v>400</v>
       </c>
-      <c r="E133"/>
+      <c r="D133" t="s">
+        <v>399</v>
+      </c>
+      <c r="E133" t="s">
+        <v>400</v>
+      </c>
       <c r="F133" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>401</v>
       </c>
@@ -4304,12 +5126,17 @@
       <c r="C134" t="s">
         <v>403</v>
       </c>
-      <c r="E134"/>
+      <c r="D134" t="s">
+        <v>402</v>
+      </c>
+      <c r="E134" t="s">
+        <v>403</v>
+      </c>
       <c r="F134" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -4319,12 +5146,17 @@
       <c r="C135" t="s">
         <v>406</v>
       </c>
-      <c r="E135"/>
+      <c r="D135" t="s">
+        <v>405</v>
+      </c>
+      <c r="E135" t="s">
+        <v>406</v>
+      </c>
       <c r="F135" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>407</v>
       </c>
@@ -4334,12 +5166,17 @@
       <c r="C136" t="s">
         <v>409</v>
       </c>
-      <c r="E136"/>
+      <c r="D136" t="s">
+        <v>408</v>
+      </c>
+      <c r="E136" t="s">
+        <v>409</v>
+      </c>
       <c r="F136" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>410</v>
       </c>
@@ -4349,12 +5186,17 @@
       <c r="C137" t="s">
         <v>412</v>
       </c>
-      <c r="E137"/>
+      <c r="D137" t="s">
+        <v>411</v>
+      </c>
+      <c r="E137" t="s">
+        <v>412</v>
+      </c>
       <c r="F137" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>413</v>
       </c>
@@ -4364,12 +5206,17 @@
       <c r="C138" t="s">
         <v>415</v>
       </c>
-      <c r="E138"/>
+      <c r="D138" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" t="s">
+        <v>415</v>
+      </c>
       <c r="F138" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>416</v>
       </c>
@@ -4379,12 +5226,17 @@
       <c r="C139" t="s">
         <v>418</v>
       </c>
-      <c r="E139"/>
+      <c r="D139" t="s">
+        <v>417</v>
+      </c>
+      <c r="E139" t="s">
+        <v>418</v>
+      </c>
       <c r="F139" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -4394,12 +5246,17 @@
       <c r="C140" t="s">
         <v>421</v>
       </c>
-      <c r="E140"/>
+      <c r="D140" t="s">
+        <v>420</v>
+      </c>
+      <c r="E140" t="s">
+        <v>421</v>
+      </c>
       <c r="F140" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>422</v>
       </c>
@@ -4409,12 +5266,17 @@
       <c r="C141" t="s">
         <v>424</v>
       </c>
-      <c r="E141"/>
+      <c r="D141" t="s">
+        <v>423</v>
+      </c>
+      <c r="E141" t="s">
+        <v>424</v>
+      </c>
       <c r="F141" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>425</v>
       </c>
@@ -4424,12 +5286,17 @@
       <c r="C142" t="s">
         <v>427</v>
       </c>
-      <c r="E142"/>
+      <c r="D142" t="s">
+        <v>426</v>
+      </c>
+      <c r="E142" t="s">
+        <v>427</v>
+      </c>
       <c r="F142" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>428</v>
       </c>
@@ -4439,12 +5306,17 @@
       <c r="C143" t="s">
         <v>430</v>
       </c>
-      <c r="E143"/>
+      <c r="D143" t="s">
+        <v>429</v>
+      </c>
+      <c r="E143" t="s">
+        <v>430</v>
+      </c>
       <c r="F143" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>431</v>
       </c>
@@ -4454,12 +5326,17 @@
       <c r="C144" t="s">
         <v>433</v>
       </c>
-      <c r="E144"/>
+      <c r="D144" t="s">
+        <v>432</v>
+      </c>
+      <c r="E144" t="s">
+        <v>433</v>
+      </c>
       <c r="F144" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>434</v>
       </c>
@@ -4469,12 +5346,17 @@
       <c r="C145" t="s">
         <v>436</v>
       </c>
-      <c r="E145"/>
+      <c r="D145" t="s">
+        <v>435</v>
+      </c>
+      <c r="E145" t="s">
+        <v>436</v>
+      </c>
       <c r="F145" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -4484,12 +5366,17 @@
       <c r="C146" t="s">
         <v>439</v>
       </c>
-      <c r="E146"/>
+      <c r="D146" t="s">
+        <v>438</v>
+      </c>
+      <c r="E146" t="s">
+        <v>439</v>
+      </c>
       <c r="F146" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>440</v>
       </c>
@@ -4499,12 +5386,17 @@
       <c r="C147" t="s">
         <v>442</v>
       </c>
-      <c r="E147"/>
+      <c r="D147" t="s">
+        <v>441</v>
+      </c>
+      <c r="E147" t="s">
+        <v>442</v>
+      </c>
       <c r="F147" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>443</v>
       </c>
@@ -4514,12 +5406,17 @@
       <c r="C148" t="s">
         <v>445</v>
       </c>
-      <c r="E148"/>
+      <c r="D148" t="s">
+        <v>444</v>
+      </c>
+      <c r="E148" t="s">
+        <v>445</v>
+      </c>
       <c r="F148" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>446</v>
       </c>
@@ -4529,12 +5426,17 @@
       <c r="C149" t="s">
         <v>448</v>
       </c>
-      <c r="E149"/>
+      <c r="D149" t="s">
+        <v>447</v>
+      </c>
+      <c r="E149" t="s">
+        <v>448</v>
+      </c>
       <c r="F149" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -4544,12 +5446,17 @@
       <c r="C150" t="s">
         <v>451</v>
       </c>
-      <c r="E150"/>
+      <c r="D150" t="s">
+        <v>450</v>
+      </c>
+      <c r="E150" t="s">
+        <v>451</v>
+      </c>
       <c r="F150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>452</v>
       </c>
@@ -4559,12 +5466,17 @@
       <c r="C151" t="s">
         <v>454</v>
       </c>
-      <c r="E151"/>
+      <c r="D151" t="s">
+        <v>453</v>
+      </c>
+      <c r="E151" t="s">
+        <v>454</v>
+      </c>
       <c r="F151" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>455</v>
       </c>
@@ -4574,12 +5486,17 @@
       <c r="C152" t="s">
         <v>457</v>
       </c>
-      <c r="E152"/>
+      <c r="D152" t="s">
+        <v>456</v>
+      </c>
+      <c r="E152" t="s">
+        <v>457</v>
+      </c>
       <c r="F152" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>458</v>
       </c>
@@ -4589,12 +5506,17 @@
       <c r="C153" t="s">
         <v>460</v>
       </c>
-      <c r="E153"/>
+      <c r="D153" t="s">
+        <v>459</v>
+      </c>
+      <c r="E153" t="s">
+        <v>460</v>
+      </c>
       <c r="F153" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>461</v>
       </c>
@@ -4604,12 +5526,17 @@
       <c r="C154" t="s">
         <v>463</v>
       </c>
-      <c r="E154"/>
+      <c r="D154" t="s">
+        <v>462</v>
+      </c>
+      <c r="E154" t="s">
+        <v>463</v>
+      </c>
       <c r="F154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>464</v>
       </c>
@@ -4619,12 +5546,17 @@
       <c r="C155" t="s">
         <v>466</v>
       </c>
-      <c r="E155"/>
+      <c r="D155" t="s">
+        <v>465</v>
+      </c>
+      <c r="E155" t="s">
+        <v>466</v>
+      </c>
       <c r="F155" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>467</v>
       </c>
@@ -4634,12 +5566,17 @@
       <c r="C156" t="s">
         <v>469</v>
       </c>
-      <c r="E156"/>
+      <c r="D156" t="s">
+        <v>468</v>
+      </c>
+      <c r="E156" t="s">
+        <v>469</v>
+      </c>
       <c r="F156" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>470</v>
       </c>
@@ -4649,12 +5586,17 @@
       <c r="C157" t="s">
         <v>472</v>
       </c>
-      <c r="E157"/>
+      <c r="D157" t="s">
+        <v>471</v>
+      </c>
+      <c r="E157" t="s">
+        <v>472</v>
+      </c>
       <c r="F157" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>473</v>
       </c>
@@ -4664,12 +5606,17 @@
       <c r="C158" t="s">
         <v>475</v>
       </c>
-      <c r="E158"/>
+      <c r="D158" t="s">
+        <v>474</v>
+      </c>
+      <c r="E158" t="s">
+        <v>475</v>
+      </c>
       <c r="F158" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -4679,12 +5626,17 @@
       <c r="C159" t="s">
         <v>478</v>
       </c>
-      <c r="E159"/>
+      <c r="D159" t="s">
+        <v>477</v>
+      </c>
+      <c r="E159" t="s">
+        <v>478</v>
+      </c>
       <c r="F159" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>479</v>
       </c>
@@ -4694,12 +5646,17 @@
       <c r="C160" t="s">
         <v>481</v>
       </c>
-      <c r="E160"/>
+      <c r="D160" t="s">
+        <v>480</v>
+      </c>
+      <c r="E160" t="s">
+        <v>481</v>
+      </c>
       <c r="F160" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -4709,12 +5666,17 @@
       <c r="C161" t="s">
         <v>484</v>
       </c>
-      <c r="E161"/>
+      <c r="D161" t="s">
+        <v>483</v>
+      </c>
+      <c r="E161" t="s">
+        <v>484</v>
+      </c>
       <c r="F161" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>485</v>
       </c>
@@ -4724,12 +5686,17 @@
       <c r="C162" t="s">
         <v>487</v>
       </c>
-      <c r="E162"/>
+      <c r="D162" t="s">
+        <v>486</v>
+      </c>
+      <c r="E162" t="s">
+        <v>487</v>
+      </c>
       <c r="F162" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>488</v>
       </c>
@@ -4739,27 +5706,37 @@
       <c r="C163" t="s">
         <v>490</v>
       </c>
-      <c r="E163"/>
+      <c r="D163" t="s">
+        <v>489</v>
+      </c>
+      <c r="E163" t="s">
+        <v>490</v>
+      </c>
       <c r="F163" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>491</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>605</v>
       </c>
       <c r="C164" t="s">
         <v>168</v>
       </c>
-      <c r="E164"/>
+      <c r="D164" t="s">
+        <v>603</v>
+      </c>
+      <c r="E164" t="s">
+        <v>604</v>
+      </c>
       <c r="F164" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>492</v>
       </c>
@@ -4769,12 +5746,17 @@
       <c r="C165" t="s">
         <v>494</v>
       </c>
-      <c r="E165"/>
+      <c r="D165" t="s">
+        <v>493</v>
+      </c>
+      <c r="E165" t="s">
+        <v>494</v>
+      </c>
       <c r="F165" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>495</v>
       </c>
@@ -4784,12 +5766,17 @@
       <c r="C166" t="s">
         <v>497</v>
       </c>
-      <c r="E166"/>
+      <c r="D166" t="s">
+        <v>496</v>
+      </c>
+      <c r="E166" t="s">
+        <v>497</v>
+      </c>
       <c r="F166" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>498</v>
       </c>
@@ -4799,12 +5786,17 @@
       <c r="C167" t="s">
         <v>500</v>
       </c>
-      <c r="E167"/>
+      <c r="D167" t="s">
+        <v>499</v>
+      </c>
+      <c r="E167" t="s">
+        <v>500</v>
+      </c>
       <c r="F167" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>501</v>
       </c>
@@ -4814,12 +5806,17 @@
       <c r="C168" t="s">
         <v>503</v>
       </c>
-      <c r="E168"/>
+      <c r="D168" t="s">
+        <v>502</v>
+      </c>
+      <c r="E168" t="s">
+        <v>503</v>
+      </c>
       <c r="F168" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>504</v>
       </c>
@@ -4829,12 +5826,17 @@
       <c r="C169" t="s">
         <v>506</v>
       </c>
-      <c r="E169"/>
+      <c r="D169" t="s">
+        <v>505</v>
+      </c>
+      <c r="E169" t="s">
+        <v>506</v>
+      </c>
       <c r="F169" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>507</v>
       </c>
@@ -4844,12 +5846,17 @@
       <c r="C170" t="s">
         <v>509</v>
       </c>
-      <c r="E170"/>
+      <c r="D170" t="s">
+        <v>508</v>
+      </c>
+      <c r="E170" t="s">
+        <v>509</v>
+      </c>
       <c r="F170" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>510</v>
       </c>
@@ -4859,12 +5866,17 @@
       <c r="C171" t="s">
         <v>512</v>
       </c>
-      <c r="E171"/>
+      <c r="D171" t="s">
+        <v>511</v>
+      </c>
+      <c r="E171" t="s">
+        <v>512</v>
+      </c>
       <c r="F171" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>513</v>
       </c>
@@ -4874,12 +5886,17 @@
       <c r="C172" t="s">
         <v>515</v>
       </c>
-      <c r="E172"/>
+      <c r="D172" t="s">
+        <v>514</v>
+      </c>
+      <c r="E172" t="s">
+        <v>515</v>
+      </c>
       <c r="F172" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>516</v>
       </c>
@@ -4889,12 +5906,17 @@
       <c r="C173" t="s">
         <v>518</v>
       </c>
-      <c r="E173"/>
+      <c r="D173" t="s">
+        <v>517</v>
+      </c>
+      <c r="E173" t="s">
+        <v>518</v>
+      </c>
       <c r="F173" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>519</v>
       </c>
@@ -4904,12 +5926,17 @@
       <c r="C174" t="s">
         <v>521</v>
       </c>
-      <c r="E174"/>
+      <c r="D174" t="s">
+        <v>520</v>
+      </c>
+      <c r="E174" t="s">
+        <v>521</v>
+      </c>
       <c r="F174" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>522</v>
       </c>
@@ -4919,12 +5946,17 @@
       <c r="C175" t="s">
         <v>524</v>
       </c>
-      <c r="E175"/>
+      <c r="D175" t="s">
+        <v>523</v>
+      </c>
+      <c r="E175" t="s">
+        <v>524</v>
+      </c>
       <c r="F175" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>525</v>
       </c>
@@ -4934,12 +5966,17 @@
       <c r="C176" t="s">
         <v>527</v>
       </c>
-      <c r="E176"/>
+      <c r="D176" t="s">
+        <v>526</v>
+      </c>
+      <c r="E176" t="s">
+        <v>527</v>
+      </c>
       <c r="F176" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>528</v>
       </c>
@@ -4949,12 +5986,17 @@
       <c r="C177" t="s">
         <v>530</v>
       </c>
-      <c r="E177"/>
+      <c r="D177" t="s">
+        <v>529</v>
+      </c>
+      <c r="E177" t="s">
+        <v>530</v>
+      </c>
       <c r="F177" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>531</v>
       </c>
@@ -4964,12 +6006,17 @@
       <c r="C178" t="s">
         <v>533</v>
       </c>
-      <c r="E178"/>
+      <c r="D178" t="s">
+        <v>532</v>
+      </c>
+      <c r="E178" t="s">
+        <v>533</v>
+      </c>
       <c r="F178" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>534</v>
       </c>
@@ -4979,12 +6026,17 @@
       <c r="C179" t="s">
         <v>536</v>
       </c>
-      <c r="E179"/>
+      <c r="D179" t="s">
+        <v>535</v>
+      </c>
+      <c r="E179" t="s">
+        <v>536</v>
+      </c>
       <c r="F179" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>537</v>
       </c>
@@ -4994,12 +6046,17 @@
       <c r="C180" t="s">
         <v>539</v>
       </c>
-      <c r="E180"/>
+      <c r="D180" t="s">
+        <v>538</v>
+      </c>
+      <c r="E180" t="s">
+        <v>539</v>
+      </c>
       <c r="F180" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>540</v>
       </c>
@@ -5009,12 +6066,17 @@
       <c r="C181" t="s">
         <v>542</v>
       </c>
-      <c r="E181"/>
+      <c r="D181" t="s">
+        <v>541</v>
+      </c>
+      <c r="E181" t="s">
+        <v>542</v>
+      </c>
       <c r="F181" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>543</v>
       </c>
@@ -5024,12 +6086,17 @@
       <c r="C182" t="s">
         <v>545</v>
       </c>
-      <c r="E182"/>
+      <c r="D182" t="s">
+        <v>544</v>
+      </c>
+      <c r="E182" t="s">
+        <v>545</v>
+      </c>
       <c r="F182" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>546</v>
       </c>
@@ -5039,12 +6106,17 @@
       <c r="C183" t="s">
         <v>548</v>
       </c>
-      <c r="E183"/>
+      <c r="D183" t="s">
+        <v>547</v>
+      </c>
+      <c r="E183" t="s">
+        <v>548</v>
+      </c>
       <c r="F183" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>549</v>
       </c>
@@ -5054,12 +6126,17 @@
       <c r="C184" t="s">
         <v>551</v>
       </c>
-      <c r="E184"/>
+      <c r="D184" t="s">
+        <v>550</v>
+      </c>
+      <c r="E184" t="s">
+        <v>551</v>
+      </c>
       <c r="F184" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>552</v>
       </c>
@@ -5069,12 +6146,17 @@
       <c r="C185" t="s">
         <v>554</v>
       </c>
-      <c r="E185"/>
+      <c r="D185" t="s">
+        <v>553</v>
+      </c>
+      <c r="E185" t="s">
+        <v>554</v>
+      </c>
       <c r="F185" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>555</v>
       </c>
@@ -5084,12 +6166,17 @@
       <c r="C186" t="s">
         <v>557</v>
       </c>
-      <c r="E186"/>
+      <c r="D186" t="s">
+        <v>556</v>
+      </c>
+      <c r="E186" t="s">
+        <v>557</v>
+      </c>
       <c r="F186" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>558</v>
       </c>
@@ -5099,12 +6186,17 @@
       <c r="C187" t="s">
         <v>560</v>
       </c>
-      <c r="E187"/>
+      <c r="D187" t="s">
+        <v>559</v>
+      </c>
+      <c r="E187" t="s">
+        <v>560</v>
+      </c>
       <c r="F187" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>561</v>
       </c>
@@ -5114,12 +6206,17 @@
       <c r="C188" t="s">
         <v>563</v>
       </c>
-      <c r="E188"/>
+      <c r="D188" t="s">
+        <v>562</v>
+      </c>
+      <c r="E188" t="s">
+        <v>563</v>
+      </c>
       <c r="F188" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>564</v>
       </c>
@@ -5129,12 +6226,17 @@
       <c r="C189" t="s">
         <v>566</v>
       </c>
-      <c r="E189"/>
+      <c r="D189" t="s">
+        <v>565</v>
+      </c>
+      <c r="E189" t="s">
+        <v>566</v>
+      </c>
       <c r="F189" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>567</v>
       </c>
@@ -5144,12 +6246,17 @@
       <c r="C190" t="s">
         <v>569</v>
       </c>
-      <c r="E190"/>
+      <c r="D190" t="s">
+        <v>568</v>
+      </c>
+      <c r="E190" t="s">
+        <v>569</v>
+      </c>
       <c r="F190" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>570</v>
       </c>
@@ -5159,12 +6266,17 @@
       <c r="C191" t="s">
         <v>572</v>
       </c>
-      <c r="E191"/>
+      <c r="D191" t="s">
+        <v>571</v>
+      </c>
+      <c r="E191" t="s">
+        <v>572</v>
+      </c>
       <c r="F191" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>573</v>
       </c>
@@ -5174,12 +6286,17 @@
       <c r="C192" t="s">
         <v>575</v>
       </c>
-      <c r="E192"/>
+      <c r="D192" t="s">
+        <v>574</v>
+      </c>
+      <c r="E192" t="s">
+        <v>575</v>
+      </c>
       <c r="F192" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -5189,12 +6306,17 @@
       <c r="C193" t="s">
         <v>578</v>
       </c>
-      <c r="E193"/>
+      <c r="D193" t="s">
+        <v>577</v>
+      </c>
+      <c r="E193" t="s">
+        <v>578</v>
+      </c>
       <c r="F193" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>579</v>
       </c>
@@ -5204,12 +6326,17 @@
       <c r="C194" t="s">
         <v>581</v>
       </c>
-      <c r="E194"/>
+      <c r="D194" t="s">
+        <v>580</v>
+      </c>
+      <c r="E194" t="s">
+        <v>581</v>
+      </c>
       <c r="F194" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>582</v>
       </c>
@@ -5219,12 +6346,17 @@
       <c r="C195" t="s">
         <v>584</v>
       </c>
-      <c r="E195"/>
+      <c r="D195" t="s">
+        <v>583</v>
+      </c>
+      <c r="E195" t="s">
+        <v>584</v>
+      </c>
       <c r="F195" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>585</v>
       </c>
@@ -5234,12 +6366,17 @@
       <c r="C196" t="s">
         <v>587</v>
       </c>
-      <c r="E196"/>
+      <c r="D196" t="s">
+        <v>586</v>
+      </c>
+      <c r="E196" t="s">
+        <v>587</v>
+      </c>
       <c r="F196" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>588</v>
       </c>
@@ -5249,12 +6386,17 @@
       <c r="C197" t="s">
         <v>590</v>
       </c>
-      <c r="E197"/>
+      <c r="D197" t="s">
+        <v>589</v>
+      </c>
+      <c r="E197" t="s">
+        <v>590</v>
+      </c>
       <c r="F197" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>591</v>
       </c>
@@ -5264,12 +6406,17 @@
       <c r="C198" t="s">
         <v>593</v>
       </c>
-      <c r="E198"/>
+      <c r="D198" t="s">
+        <v>592</v>
+      </c>
+      <c r="E198" t="s">
+        <v>593</v>
+      </c>
       <c r="F198" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>594</v>
       </c>
@@ -5279,12 +6426,17 @@
       <c r="C199" t="s">
         <v>596</v>
       </c>
-      <c r="E199"/>
+      <c r="D199" t="s">
+        <v>595</v>
+      </c>
+      <c r="E199" t="s">
+        <v>596</v>
+      </c>
       <c r="F199" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>597</v>
       </c>
@@ -5294,12 +6446,17 @@
       <c r="C200" t="s">
         <v>599</v>
       </c>
-      <c r="E200"/>
+      <c r="D200" t="s">
+        <v>598</v>
+      </c>
+      <c r="E200" t="s">
+        <v>599</v>
+      </c>
       <c r="F200" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>600</v>
       </c>
@@ -5309,25 +6466,33 @@
       <c r="C201" t="s">
         <v>602</v>
       </c>
-      <c r="E201"/>
+      <c r="D201" t="s">
+        <v>601</v>
+      </c>
+      <c r="E201" t="s">
+        <v>602</v>
+      </c>
       <c r="F201" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D151">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1 A202:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A201">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A201">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Input_Files/province_names/great_britain_provinces.xlsx
+++ b/src/Input_Files/province_names/great_britain_provinces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\great_britain_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EA5B16-373C-4310-B412-B7FBF9A5F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415673A-3C00-40B7-B95B-BC3C290C4D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="609">
   <si>
     <t>RGB</t>
   </si>
@@ -82,12 +82,6 @@
     <t>(154, 223, 52)</t>
   </si>
   <si>
-    <t>sutton_at_hone</t>
-  </si>
-  <si>
-    <t>Sutton-at-Hone</t>
-  </si>
-  <si>
     <t>(194, 69, 46)</t>
   </si>
   <si>
@@ -1345,12 +1339,6 @@
     <t>(83, 204, 31)</t>
   </si>
   <si>
-    <t>castlebar</t>
-  </si>
-  <si>
-    <t>Castlebar</t>
-  </si>
-  <si>
     <t>(58, 146, 14)</t>
   </si>
   <si>
@@ -1555,12 +1543,6 @@
     <t>(98, 162, 10)</t>
   </si>
   <si>
-    <t>bunratty</t>
-  </si>
-  <si>
-    <t>Bunratty</t>
-  </si>
-  <si>
     <t>(219, 103, 58)</t>
   </si>
   <si>
@@ -1618,12 +1600,6 @@
     <t>(108, 70, 38)</t>
   </si>
   <si>
-    <t>killarney</t>
-  </si>
-  <si>
-    <t>Killarney</t>
-  </si>
-  <si>
     <t>(238, 225, 15)</t>
   </si>
   <si>
@@ -1645,12 +1621,6 @@
     <t>(52, 127, 67)</t>
   </si>
   <si>
-    <t>mallow</t>
-  </si>
-  <si>
-    <t>Mallow</t>
-  </si>
-  <si>
     <t>(150, 51, 50)</t>
   </si>
   <si>
@@ -1841,6 +1811,42 @@
   </si>
   <si>
     <t>berwick_upon_tweed</t>
+  </si>
+  <si>
+    <t>Gailenga</t>
+  </si>
+  <si>
+    <t>gailenga</t>
+  </si>
+  <si>
+    <t>Clancullen</t>
+  </si>
+  <si>
+    <t>clancullen</t>
+  </si>
+  <si>
+    <t>Clangibbon</t>
+  </si>
+  <si>
+    <t>clangibbon</t>
+  </si>
+  <si>
+    <t>McCarthy Mor</t>
+  </si>
+  <si>
+    <t>mccarthy_mor</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>bromley</t>
+  </si>
+  <si>
+    <t>holding_type</t>
+  </si>
+  <si>
+    <t>castle_holding</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1912,57 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2301,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2312,11 +2368,11 @@
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2333,10 +2389,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2353,10 +2412,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2373,10 +2435,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2393,10 +2458,13 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2413,3946 +2481,4552 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" t="s">
+        <v>608</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
+        <v>608</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
+        <v>608</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
+        <v>608</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
+        <v>608</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
+        <v>608</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
+        <v>608</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
+        <v>608</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
+        <v>608</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
+        <v>608</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
+        <v>608</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
+        <v>608</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
+        <v>608</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
+        <v>608</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
+        <v>608</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
         <v>75</v>
       </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
+        <v>608</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
+        <v>608</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="E27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
+        <v>608</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
+        <v>608</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="E29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
+        <v>608</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="E30" t="s">
         <v>91</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
+        <v>608</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="E31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
+        <v>608</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>95</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
         <v>96</v>
       </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="E32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
+        <v>608</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>98</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
         <v>99</v>
       </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="E33" t="s">
         <v>100</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
+        <v>608</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>101</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
         <v>102</v>
       </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="E34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
+        <v>608</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
         <v>105</v>
       </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="E35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
+        <v>608</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>107</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
         <v>108</v>
       </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="E36" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s">
+      <c r="F36" t="s">
+        <v>608</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s">
+      <c r="F37" t="s">
+        <v>608</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>113</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>114</v>
       </c>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
         <v>114</v>
       </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="E38" t="s">
         <v>115</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
+        <v>608</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>116</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>117</v>
       </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
         <v>117</v>
       </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="E39" t="s">
         <v>118</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
+        <v>608</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>119</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>120</v>
       </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
         <v>120</v>
       </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="E40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
+        <v>608</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>122</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="D40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
         <v>123</v>
       </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="E41" t="s">
         <v>124</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
+        <v>608</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>125</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
         <v>126</v>
       </c>
-      <c r="D41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
         <v>126</v>
       </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="E42" t="s">
         <v>127</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
+        <v>608</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>128</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
         <v>129</v>
       </c>
-      <c r="D42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
         <v>129</v>
       </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="E43" t="s">
         <v>130</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
+        <v>608</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>131</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="D43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
         <v>132</v>
       </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="E44" t="s">
         <v>133</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" t="s">
+        <v>608</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>134</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="D44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
         <v>135</v>
       </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="E45" t="s">
         <v>136</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
+        <v>608</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
         <v>138</v>
       </c>
-      <c r="D45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
         <v>138</v>
       </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="E46" t="s">
         <v>139</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
+        <v>608</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
         <v>141</v>
       </c>
-      <c r="D46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
         <v>141</v>
       </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="E47" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
+        <v>608</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>143</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
         <v>144</v>
       </c>
-      <c r="D47" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
         <v>144</v>
       </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="E48" t="s">
         <v>145</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
+        <v>608</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>146</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
         <v>147</v>
       </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
         <v>147</v>
       </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="E49" t="s">
         <v>148</v>
       </c>
-      <c r="B49" t="s">
+      <c r="F49" t="s">
+        <v>608</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>149</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
         <v>150</v>
       </c>
-      <c r="D49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
         <v>150</v>
       </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="E50" t="s">
         <v>151</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
+        <v>608</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
         <v>153</v>
       </c>
-      <c r="D50" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
         <v>153</v>
       </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="E51" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51" t="s">
+        <v>608</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>155</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
         <v>156</v>
       </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
         <v>156</v>
       </c>
-      <c r="F51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="E52" t="s">
         <v>157</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F52" t="s">
+        <v>608</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
         <v>159</v>
       </c>
-      <c r="D52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" t="s">
         <v>159</v>
       </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="E53" t="s">
         <v>160</v>
       </c>
-      <c r="B53" t="s">
+      <c r="F53" t="s">
+        <v>608</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>161</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
         <v>162</v>
       </c>
-      <c r="D53" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
         <v>162</v>
       </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="E54" t="s">
         <v>163</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
+        <v>608</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>164</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
         <v>165</v>
       </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
         <v>165</v>
       </c>
-      <c r="F54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="E55" t="s">
         <v>166</v>
       </c>
-      <c r="B55" t="s">
+      <c r="F55" t="s">
+        <v>608</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>167</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
         <v>168</v>
       </c>
-      <c r="D55" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
         <v>168</v>
       </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="E56" t="s">
         <v>169</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
+        <v>608</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>170</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
         <v>171</v>
       </c>
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s">
         <v>171</v>
       </c>
-      <c r="F56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="E57" t="s">
         <v>172</v>
       </c>
-      <c r="B57" t="s">
+      <c r="F57" t="s">
+        <v>608</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>173</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
         <v>174</v>
       </c>
-      <c r="D57" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
         <v>174</v>
       </c>
-      <c r="F57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="E58" t="s">
         <v>175</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F58" t="s">
+        <v>608</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>176</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
         <v>177</v>
       </c>
-      <c r="D58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
         <v>177</v>
       </c>
-      <c r="F58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="E59" t="s">
         <v>178</v>
       </c>
-      <c r="B59" t="s">
+      <c r="F59" t="s">
+        <v>608</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>179</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
         <v>180</v>
       </c>
-      <c r="D59" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
         <v>180</v>
       </c>
-      <c r="F59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="E60" t="s">
         <v>181</v>
       </c>
-      <c r="B60" t="s">
+      <c r="F60" t="s">
+        <v>608</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>182</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
         <v>183</v>
       </c>
-      <c r="D60" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
         <v>183</v>
       </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="E61" t="s">
         <v>184</v>
       </c>
-      <c r="B61" t="s">
+      <c r="F61" t="s">
+        <v>608</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>185</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
         <v>186</v>
       </c>
-      <c r="D61" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" t="s">
         <v>186</v>
       </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="E62" t="s">
         <v>187</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" t="s">
+        <v>608</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>188</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
         <v>189</v>
       </c>
-      <c r="D62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" t="s">
         <v>189</v>
       </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="E63" t="s">
         <v>190</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F63" t="s">
+        <v>608</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>191</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
         <v>192</v>
       </c>
-      <c r="D63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
         <v>192</v>
       </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="E64" t="s">
         <v>193</v>
       </c>
-      <c r="B64" t="s">
+      <c r="F64" t="s">
+        <v>608</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>194</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
         <v>195</v>
       </c>
-      <c r="D64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" t="s">
         <v>195</v>
       </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="E65" t="s">
         <v>196</v>
       </c>
-      <c r="B65" t="s">
+      <c r="F65" t="s">
+        <v>608</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>197</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
         <v>198</v>
       </c>
-      <c r="D65" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" t="s">
         <v>198</v>
       </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="E66" t="s">
         <v>199</v>
       </c>
-      <c r="B66" t="s">
+      <c r="F66" t="s">
+        <v>608</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>200</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
         <v>201</v>
       </c>
-      <c r="D66" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
         <v>201</v>
       </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="E67" t="s">
         <v>202</v>
       </c>
-      <c r="B67" t="s">
+      <c r="F67" t="s">
+        <v>608</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>203</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
         <v>204</v>
       </c>
-      <c r="D67" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" t="s">
         <v>204</v>
       </c>
-      <c r="F67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="E68" t="s">
         <v>205</v>
       </c>
-      <c r="B68" t="s">
+      <c r="F68" t="s">
+        <v>608</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>206</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
         <v>207</v>
       </c>
-      <c r="D68" t="s">
-        <v>206</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" t="s">
         <v>207</v>
       </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="E69" t="s">
         <v>208</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
+        <v>608</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>209</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
         <v>210</v>
       </c>
-      <c r="D69" t="s">
-        <v>209</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" t="s">
         <v>210</v>
       </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="E70" t="s">
         <v>211</v>
       </c>
-      <c r="B70" t="s">
+      <c r="F70" t="s">
+        <v>608</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>212</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>596</v>
+      </c>
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>596</v>
+      </c>
+      <c r="E71" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" t="s">
+        <v>608</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" t="s">
+        <v>608</v>
+      </c>
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" t="s">
+        <v>608</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" t="s">
+        <v>608</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" t="s">
+        <v>608</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" t="s">
+        <v>608</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" t="s">
+        <v>608</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" t="s">
+        <v>608</v>
+      </c>
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" t="s">
+        <v>608</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" t="s">
+        <v>608</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" t="s">
+        <v>608</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" t="s">
+        <v>608</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" t="s">
+        <v>608</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" t="s">
+        <v>608</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" t="s">
+        <v>256</v>
+      </c>
+      <c r="F85" t="s">
+        <v>608</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>257</v>
+      </c>
+      <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" t="s">
+        <v>259</v>
+      </c>
+      <c r="F86" t="s">
+        <v>608</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" t="s">
+        <v>262</v>
+      </c>
+      <c r="F87" t="s">
+        <v>608</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" t="s">
+        <v>608</v>
+      </c>
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" t="s">
+        <v>267</v>
+      </c>
+      <c r="E89" t="s">
+        <v>268</v>
+      </c>
+      <c r="F89" t="s">
+        <v>608</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90" t="s">
+        <v>271</v>
+      </c>
+      <c r="F90" t="s">
+        <v>608</v>
+      </c>
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" t="s">
+        <v>274</v>
+      </c>
+      <c r="F91" t="s">
+        <v>608</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" t="s">
+        <v>277</v>
+      </c>
+      <c r="F92" t="s">
+        <v>608</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" t="s">
+        <v>280</v>
+      </c>
+      <c r="F93" t="s">
+        <v>608</v>
+      </c>
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" t="s">
+        <v>283</v>
+      </c>
+      <c r="F94" t="s">
+        <v>608</v>
+      </c>
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" t="s">
+        <v>608</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" t="s">
+        <v>288</v>
+      </c>
+      <c r="E96" t="s">
+        <v>289</v>
+      </c>
+      <c r="F96" t="s">
+        <v>608</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" t="s">
+        <v>291</v>
+      </c>
+      <c r="E97" t="s">
+        <v>292</v>
+      </c>
+      <c r="F97" t="s">
+        <v>608</v>
+      </c>
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" t="s">
+        <v>295</v>
+      </c>
+      <c r="D98" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" t="s">
+        <v>608</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" t="s">
+        <v>297</v>
+      </c>
+      <c r="E99" t="s">
+        <v>298</v>
+      </c>
+      <c r="F99" t="s">
+        <v>608</v>
+      </c>
+      <c r="G99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" t="s">
+        <v>300</v>
+      </c>
+      <c r="E100" t="s">
+        <v>301</v>
+      </c>
+      <c r="F100" t="s">
+        <v>608</v>
+      </c>
+      <c r="G100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" t="s">
         <v>213</v>
       </c>
-      <c r="D70" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
         <v>213</v>
       </c>
-      <c r="F70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="E101" t="s">
         <v>214</v>
       </c>
-      <c r="B71" t="s">
-        <v>606</v>
-      </c>
-      <c r="C71" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" t="s">
-        <v>606</v>
-      </c>
-      <c r="E71" t="s">
-        <v>216</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" t="s">
-        <v>218</v>
-      </c>
-      <c r="E72" t="s">
-        <v>219</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" t="s">
-        <v>222</v>
-      </c>
-      <c r="D73" t="s">
-        <v>221</v>
-      </c>
-      <c r="E73" t="s">
-        <v>222</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>223</v>
-      </c>
-      <c r="B74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" t="s">
-        <v>224</v>
-      </c>
-      <c r="E74" t="s">
-        <v>225</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>226</v>
-      </c>
-      <c r="B75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75" t="s">
-        <v>227</v>
-      </c>
-      <c r="E75" t="s">
-        <v>228</v>
-      </c>
-      <c r="F75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>229</v>
-      </c>
-      <c r="B76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" t="s">
-        <v>230</v>
-      </c>
-      <c r="E76" t="s">
-        <v>231</v>
-      </c>
-      <c r="F76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>232</v>
-      </c>
-      <c r="B77" t="s">
-        <v>233</v>
-      </c>
-      <c r="C77" t="s">
-        <v>234</v>
-      </c>
-      <c r="D77" t="s">
-        <v>233</v>
-      </c>
-      <c r="E77" t="s">
-        <v>234</v>
-      </c>
-      <c r="F77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>235</v>
-      </c>
-      <c r="B78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78" t="s">
-        <v>237</v>
-      </c>
-      <c r="F78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>238</v>
-      </c>
-      <c r="B79" t="s">
-        <v>239</v>
-      </c>
-      <c r="C79" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" t="s">
-        <v>239</v>
-      </c>
-      <c r="E79" t="s">
-        <v>240</v>
-      </c>
-      <c r="F79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>241</v>
-      </c>
-      <c r="B80" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" t="s">
-        <v>242</v>
-      </c>
-      <c r="E80" t="s">
-        <v>243</v>
-      </c>
-      <c r="F80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>244</v>
-      </c>
-      <c r="B81" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" t="s">
-        <v>245</v>
-      </c>
-      <c r="E81" t="s">
-        <v>246</v>
-      </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>247</v>
-      </c>
-      <c r="B82" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82" t="s">
-        <v>249</v>
-      </c>
-      <c r="D82" t="s">
-        <v>248</v>
-      </c>
-      <c r="E82" t="s">
-        <v>249</v>
-      </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>250</v>
-      </c>
-      <c r="B83" t="s">
-        <v>251</v>
-      </c>
-      <c r="C83" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" t="s">
-        <v>251</v>
-      </c>
-      <c r="E83" t="s">
-        <v>252</v>
-      </c>
-      <c r="F83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>253</v>
-      </c>
-      <c r="B84" t="s">
-        <v>254</v>
-      </c>
-      <c r="C84" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" t="s">
-        <v>254</v>
-      </c>
-      <c r="E84" t="s">
-        <v>255</v>
-      </c>
-      <c r="F84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>256</v>
-      </c>
-      <c r="B85" t="s">
-        <v>257</v>
-      </c>
-      <c r="C85" t="s">
-        <v>258</v>
-      </c>
-      <c r="D85" t="s">
-        <v>257</v>
-      </c>
-      <c r="E85" t="s">
-        <v>258</v>
-      </c>
-      <c r="F85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>259</v>
-      </c>
-      <c r="B86" t="s">
-        <v>260</v>
-      </c>
-      <c r="C86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" t="s">
-        <v>260</v>
-      </c>
-      <c r="E86" t="s">
-        <v>261</v>
-      </c>
-      <c r="F86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>262</v>
-      </c>
-      <c r="B87" t="s">
-        <v>263</v>
-      </c>
-      <c r="C87" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" t="s">
-        <v>263</v>
-      </c>
-      <c r="E87" t="s">
-        <v>264</v>
-      </c>
-      <c r="F87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>265</v>
-      </c>
-      <c r="B88" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" t="s">
-        <v>267</v>
-      </c>
-      <c r="D88" t="s">
-        <v>266</v>
-      </c>
-      <c r="E88" t="s">
-        <v>267</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>268</v>
-      </c>
-      <c r="B89" t="s">
-        <v>269</v>
-      </c>
-      <c r="C89" t="s">
-        <v>270</v>
-      </c>
-      <c r="D89" t="s">
-        <v>269</v>
-      </c>
-      <c r="E89" t="s">
-        <v>270</v>
-      </c>
-      <c r="F89" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>271</v>
-      </c>
-      <c r="B90" t="s">
-        <v>272</v>
-      </c>
-      <c r="C90" t="s">
-        <v>273</v>
-      </c>
-      <c r="D90" t="s">
-        <v>272</v>
-      </c>
-      <c r="E90" t="s">
-        <v>273</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>274</v>
-      </c>
-      <c r="B91" t="s">
-        <v>275</v>
-      </c>
-      <c r="C91" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" t="s">
-        <v>275</v>
-      </c>
-      <c r="E91" t="s">
-        <v>276</v>
-      </c>
-      <c r="F91" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>277</v>
-      </c>
-      <c r="B92" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" t="s">
-        <v>279</v>
-      </c>
-      <c r="F92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>280</v>
-      </c>
-      <c r="B93" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" t="s">
-        <v>281</v>
-      </c>
-      <c r="E93" t="s">
-        <v>282</v>
-      </c>
-      <c r="F93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>283</v>
-      </c>
-      <c r="B94" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" t="s">
-        <v>284</v>
-      </c>
-      <c r="E94" t="s">
-        <v>285</v>
-      </c>
-      <c r="F94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>286</v>
-      </c>
-      <c r="B95" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" t="s">
-        <v>287</v>
-      </c>
-      <c r="E95" t="s">
-        <v>288</v>
-      </c>
-      <c r="F95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>289</v>
-      </c>
-      <c r="B96" t="s">
-        <v>290</v>
-      </c>
-      <c r="C96" t="s">
-        <v>291</v>
-      </c>
-      <c r="D96" t="s">
-        <v>290</v>
-      </c>
-      <c r="E96" t="s">
-        <v>291</v>
-      </c>
-      <c r="F96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>292</v>
-      </c>
-      <c r="B97" t="s">
-        <v>293</v>
-      </c>
-      <c r="C97" t="s">
-        <v>294</v>
-      </c>
-      <c r="D97" t="s">
-        <v>293</v>
-      </c>
-      <c r="E97" t="s">
-        <v>294</v>
-      </c>
-      <c r="F97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>295</v>
-      </c>
-      <c r="B98" t="s">
-        <v>296</v>
-      </c>
-      <c r="C98" t="s">
-        <v>297</v>
-      </c>
-      <c r="D98" t="s">
-        <v>296</v>
-      </c>
-      <c r="E98" t="s">
-        <v>297</v>
-      </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>298</v>
-      </c>
-      <c r="B99" t="s">
-        <v>299</v>
-      </c>
-      <c r="C99" t="s">
-        <v>300</v>
-      </c>
-      <c r="D99" t="s">
-        <v>299</v>
-      </c>
-      <c r="E99" t="s">
-        <v>300</v>
-      </c>
-      <c r="F99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>301</v>
-      </c>
-      <c r="B100" t="s">
-        <v>302</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="F101" t="s">
+        <v>608</v>
+      </c>
+      <c r="G101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>303</v>
       </c>
-      <c r="D100" t="s">
-        <v>302</v>
-      </c>
-      <c r="E100" t="s">
-        <v>303</v>
-      </c>
-      <c r="F100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B102" t="s">
         <v>304</v>
       </c>
-      <c r="B101" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" t="s">
-        <v>215</v>
-      </c>
-      <c r="E101" t="s">
-        <v>216</v>
-      </c>
-      <c r="F101" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
         <v>305</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
+        <v>304</v>
+      </c>
+      <c r="E102" t="s">
+        <v>305</v>
+      </c>
+      <c r="F102" t="s">
+        <v>608</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>306</v>
       </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
         <v>307</v>
       </c>
-      <c r="D102" t="s">
-        <v>306</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C103" t="s">
+        <v>308</v>
+      </c>
+      <c r="D103" t="s">
         <v>307</v>
       </c>
-      <c r="F102" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="E103" t="s">
         <v>308</v>
       </c>
-      <c r="B103" t="s">
+      <c r="F103" t="s">
+        <v>608</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>309</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
         <v>310</v>
       </c>
-      <c r="D103" t="s">
-        <v>309</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C104" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" t="s">
         <v>310</v>
       </c>
-      <c r="F103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="E104" t="s">
         <v>311</v>
       </c>
-      <c r="B104" t="s">
+      <c r="F104" t="s">
+        <v>608</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>312</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
         <v>313</v>
       </c>
-      <c r="D104" t="s">
-        <v>312</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="C105" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" t="s">
         <v>313</v>
       </c>
-      <c r="F104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="E105" t="s">
         <v>314</v>
       </c>
-      <c r="B105" t="s">
+      <c r="F105" t="s">
+        <v>608</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>315</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
         <v>316</v>
       </c>
-      <c r="D105" t="s">
-        <v>315</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="C106" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" t="s">
         <v>316</v>
       </c>
-      <c r="F105" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="E106" t="s">
         <v>317</v>
       </c>
-      <c r="B106" t="s">
+      <c r="F106" t="s">
+        <v>608</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>318</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
         <v>319</v>
       </c>
-      <c r="D106" t="s">
-        <v>318</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" t="s">
         <v>319</v>
       </c>
-      <c r="F106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="E107" t="s">
         <v>320</v>
       </c>
-      <c r="B107" t="s">
+      <c r="F107" t="s">
+        <v>608</v>
+      </c>
+      <c r="G107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>321</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
         <v>322</v>
       </c>
-      <c r="D107" t="s">
-        <v>321</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="C108" t="s">
+        <v>323</v>
+      </c>
+      <c r="D108" t="s">
         <v>322</v>
       </c>
-      <c r="F107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="E108" t="s">
         <v>323</v>
       </c>
-      <c r="B108" t="s">
+      <c r="F108" t="s">
+        <v>608</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>324</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
         <v>325</v>
       </c>
-      <c r="D108" t="s">
-        <v>324</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="C109" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" t="s">
         <v>325</v>
       </c>
-      <c r="F108" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="E109" t="s">
         <v>326</v>
       </c>
-      <c r="B109" t="s">
+      <c r="F109" t="s">
+        <v>608</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>327</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
         <v>328</v>
       </c>
-      <c r="D109" t="s">
-        <v>327</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="C110" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" t="s">
         <v>328</v>
       </c>
-      <c r="F109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="E110" t="s">
         <v>329</v>
       </c>
-      <c r="B110" t="s">
+      <c r="F110" t="s">
+        <v>608</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>330</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
         <v>331</v>
       </c>
-      <c r="D110" t="s">
-        <v>330</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="C111" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" t="s">
         <v>331</v>
       </c>
-      <c r="F110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="E111" t="s">
         <v>332</v>
       </c>
-      <c r="B111" t="s">
+      <c r="F111" t="s">
+        <v>608</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>333</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
         <v>334</v>
       </c>
-      <c r="D111" t="s">
-        <v>333</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C112" t="s">
+        <v>335</v>
+      </c>
+      <c r="D112" t="s">
         <v>334</v>
       </c>
-      <c r="F111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="E112" t="s">
         <v>335</v>
       </c>
-      <c r="B112" t="s">
+      <c r="F112" t="s">
+        <v>608</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>336</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
         <v>337</v>
       </c>
-      <c r="D112" t="s">
-        <v>336</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="C113" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113" t="s">
         <v>337</v>
       </c>
-      <c r="F112" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="E113" t="s">
         <v>338</v>
       </c>
-      <c r="B113" t="s">
+      <c r="F113" t="s">
+        <v>608</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>339</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
         <v>340</v>
       </c>
-      <c r="D113" t="s">
-        <v>339</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="C114" t="s">
+        <v>341</v>
+      </c>
+      <c r="D114" t="s">
         <v>340</v>
       </c>
-      <c r="F113" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="E114" t="s">
         <v>341</v>
       </c>
-      <c r="B114" t="s">
+      <c r="F114" t="s">
+        <v>608</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>342</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
         <v>343</v>
       </c>
-      <c r="D114" t="s">
-        <v>342</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C115" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" t="s">
         <v>343</v>
       </c>
-      <c r="F114" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="E115" t="s">
         <v>344</v>
       </c>
-      <c r="B115" t="s">
+      <c r="F115" t="s">
+        <v>608</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>345</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
         <v>346</v>
       </c>
-      <c r="D115" t="s">
-        <v>345</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C116" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116" t="s">
         <v>346</v>
       </c>
-      <c r="F115" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="E116" t="s">
         <v>347</v>
       </c>
-      <c r="B116" t="s">
+      <c r="F116" t="s">
+        <v>608</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>348</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
         <v>349</v>
       </c>
-      <c r="D116" t="s">
-        <v>348</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="C117" t="s">
+        <v>350</v>
+      </c>
+      <c r="D117" t="s">
         <v>349</v>
       </c>
-      <c r="F116" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="E117" t="s">
         <v>350</v>
       </c>
-      <c r="B117" t="s">
+      <c r="F117" t="s">
+        <v>608</v>
+      </c>
+      <c r="G117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>351</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
         <v>352</v>
       </c>
-      <c r="D117" t="s">
-        <v>351</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="C118" t="s">
+        <v>353</v>
+      </c>
+      <c r="D118" t="s">
         <v>352</v>
       </c>
-      <c r="F117" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="E118" t="s">
         <v>353</v>
       </c>
-      <c r="B118" t="s">
+      <c r="F118" t="s">
+        <v>608</v>
+      </c>
+      <c r="G118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>354</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
         <v>355</v>
       </c>
-      <c r="D118" t="s">
-        <v>354</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C119" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119" t="s">
         <v>355</v>
       </c>
-      <c r="F118" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="E119" t="s">
         <v>356</v>
       </c>
-      <c r="B119" t="s">
+      <c r="F119" t="s">
+        <v>608</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>357</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
         <v>358</v>
       </c>
-      <c r="D119" t="s">
-        <v>357</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C120" t="s">
+        <v>359</v>
+      </c>
+      <c r="D120" t="s">
         <v>358</v>
       </c>
-      <c r="F119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="E120" t="s">
         <v>359</v>
       </c>
-      <c r="B120" t="s">
+      <c r="F120" t="s">
+        <v>608</v>
+      </c>
+      <c r="G120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>360</v>
       </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
         <v>361</v>
       </c>
-      <c r="D120" t="s">
-        <v>360</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="C121" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" t="s">
         <v>361</v>
       </c>
-      <c r="F120" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="E121" t="s">
         <v>362</v>
       </c>
-      <c r="B121" t="s">
+      <c r="F121" t="s">
+        <v>608</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>363</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
         <v>364</v>
       </c>
-      <c r="D121" t="s">
-        <v>363</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="C122" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" t="s">
         <v>364</v>
       </c>
-      <c r="F121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="E122" t="s">
         <v>365</v>
       </c>
-      <c r="B122" t="s">
+      <c r="F122" t="s">
+        <v>608</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>366</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B123" t="s">
         <v>367</v>
       </c>
-      <c r="D122" t="s">
-        <v>366</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="C123" t="s">
+        <v>368</v>
+      </c>
+      <c r="D123" t="s">
         <v>367</v>
       </c>
-      <c r="F122" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="E123" t="s">
         <v>368</v>
       </c>
-      <c r="B123" t="s">
+      <c r="F123" t="s">
+        <v>608</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>369</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
         <v>370</v>
       </c>
-      <c r="D123" t="s">
-        <v>369</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="C124" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" t="s">
         <v>370</v>
       </c>
-      <c r="F123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="E124" t="s">
         <v>371</v>
       </c>
-      <c r="B124" t="s">
+      <c r="F124" t="s">
+        <v>608</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>372</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
         <v>373</v>
       </c>
-      <c r="D124" t="s">
-        <v>372</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="C125" t="s">
+        <v>374</v>
+      </c>
+      <c r="D125" t="s">
         <v>373</v>
       </c>
-      <c r="F124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="E125" t="s">
         <v>374</v>
       </c>
-      <c r="B125" t="s">
+      <c r="F125" t="s">
+        <v>608</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>375</v>
       </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
         <v>376</v>
       </c>
-      <c r="D125" t="s">
-        <v>375</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="C126" t="s">
+        <v>377</v>
+      </c>
+      <c r="D126" t="s">
         <v>376</v>
       </c>
-      <c r="F125" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="E126" t="s">
         <v>377</v>
       </c>
-      <c r="B126" t="s">
+      <c r="F126" t="s">
+        <v>608</v>
+      </c>
+      <c r="G126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>378</v>
       </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
         <v>379</v>
       </c>
-      <c r="D126" t="s">
-        <v>378</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="C127" t="s">
+        <v>380</v>
+      </c>
+      <c r="D127" t="s">
         <v>379</v>
       </c>
-      <c r="F126" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="E127" t="s">
         <v>380</v>
       </c>
-      <c r="B127" t="s">
+      <c r="F127" t="s">
+        <v>608</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>381</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
         <v>382</v>
       </c>
-      <c r="D127" t="s">
-        <v>381</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="C128" t="s">
+        <v>383</v>
+      </c>
+      <c r="D128" t="s">
         <v>382</v>
       </c>
-      <c r="F127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="E128" t="s">
         <v>383</v>
       </c>
-      <c r="B128" t="s">
+      <c r="F128" t="s">
+        <v>608</v>
+      </c>
+      <c r="G128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>384</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
         <v>385</v>
       </c>
-      <c r="D128" t="s">
-        <v>384</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="C129" t="s">
+        <v>386</v>
+      </c>
+      <c r="D129" t="s">
         <v>385</v>
       </c>
-      <c r="F128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="E129" t="s">
         <v>386</v>
       </c>
-      <c r="B129" t="s">
+      <c r="F129" t="s">
+        <v>608</v>
+      </c>
+      <c r="G129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>387</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
         <v>388</v>
       </c>
-      <c r="D129" t="s">
-        <v>387</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="C130" t="s">
+        <v>389</v>
+      </c>
+      <c r="D130" t="s">
         <v>388</v>
       </c>
-      <c r="F129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="E130" t="s">
         <v>389</v>
       </c>
-      <c r="B130" t="s">
+      <c r="F130" t="s">
+        <v>608</v>
+      </c>
+      <c r="G130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>390</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
         <v>391</v>
       </c>
-      <c r="D130" t="s">
-        <v>390</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C131" t="s">
+        <v>392</v>
+      </c>
+      <c r="D131" t="s">
         <v>391</v>
       </c>
-      <c r="F130" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="E131" t="s">
         <v>392</v>
       </c>
-      <c r="B131" t="s">
+      <c r="F131" t="s">
+        <v>608</v>
+      </c>
+      <c r="G131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>393</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B132" t="s">
         <v>394</v>
       </c>
-      <c r="D131" t="s">
-        <v>393</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="C132" t="s">
+        <v>395</v>
+      </c>
+      <c r="D132" t="s">
         <v>394</v>
       </c>
-      <c r="F131" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="E132" t="s">
         <v>395</v>
       </c>
-      <c r="B132" t="s">
+      <c r="F132" t="s">
+        <v>608</v>
+      </c>
+      <c r="G132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>396</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
         <v>397</v>
       </c>
-      <c r="D132" t="s">
-        <v>396</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="C133" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133" t="s">
         <v>397</v>
       </c>
-      <c r="F132" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="E133" t="s">
         <v>398</v>
       </c>
-      <c r="B133" t="s">
+      <c r="F133" t="s">
+        <v>608</v>
+      </c>
+      <c r="G133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>399</v>
       </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
         <v>400</v>
       </c>
-      <c r="D133" t="s">
-        <v>399</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="C134" t="s">
+        <v>401</v>
+      </c>
+      <c r="D134" t="s">
         <v>400</v>
       </c>
-      <c r="F133" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="E134" t="s">
         <v>401</v>
       </c>
-      <c r="B134" t="s">
+      <c r="F134" t="s">
+        <v>608</v>
+      </c>
+      <c r="G134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>402</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
         <v>403</v>
       </c>
-      <c r="D134" t="s">
-        <v>402</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="C135" t="s">
+        <v>404</v>
+      </c>
+      <c r="D135" t="s">
         <v>403</v>
       </c>
-      <c r="F134" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="E135" t="s">
         <v>404</v>
       </c>
-      <c r="B135" t="s">
+      <c r="F135" t="s">
+        <v>608</v>
+      </c>
+      <c r="G135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>405</v>
       </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
         <v>406</v>
       </c>
-      <c r="D135" t="s">
-        <v>405</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="C136" t="s">
+        <v>407</v>
+      </c>
+      <c r="D136" t="s">
         <v>406</v>
       </c>
-      <c r="F135" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="E136" t="s">
         <v>407</v>
       </c>
-      <c r="B136" t="s">
+      <c r="F136" t="s">
+        <v>608</v>
+      </c>
+      <c r="G136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>408</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
         <v>409</v>
       </c>
-      <c r="D136" t="s">
-        <v>408</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="C137" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" t="s">
         <v>409</v>
       </c>
-      <c r="F136" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="E137" t="s">
         <v>410</v>
       </c>
-      <c r="B137" t="s">
+      <c r="F137" t="s">
+        <v>608</v>
+      </c>
+      <c r="G137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>411</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B138" t="s">
         <v>412</v>
       </c>
-      <c r="D137" t="s">
-        <v>411</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="C138" t="s">
+        <v>413</v>
+      </c>
+      <c r="D138" t="s">
         <v>412</v>
       </c>
-      <c r="F137" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="E138" t="s">
         <v>413</v>
       </c>
-      <c r="B138" t="s">
+      <c r="F138" t="s">
+        <v>608</v>
+      </c>
+      <c r="G138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>414</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
         <v>415</v>
       </c>
-      <c r="D138" t="s">
-        <v>414</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="C139" t="s">
+        <v>416</v>
+      </c>
+      <c r="D139" t="s">
         <v>415</v>
       </c>
-      <c r="F138" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="E139" t="s">
         <v>416</v>
       </c>
-      <c r="B139" t="s">
+      <c r="F139" t="s">
+        <v>608</v>
+      </c>
+      <c r="G139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>417</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
         <v>418</v>
       </c>
-      <c r="D139" t="s">
-        <v>417</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="C140" t="s">
+        <v>419</v>
+      </c>
+      <c r="D140" t="s">
         <v>418</v>
       </c>
-      <c r="F139" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="E140" t="s">
         <v>419</v>
       </c>
-      <c r="B140" t="s">
+      <c r="F140" t="s">
+        <v>608</v>
+      </c>
+      <c r="G140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>420</v>
       </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
         <v>421</v>
       </c>
-      <c r="D140" t="s">
-        <v>420</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="C141" t="s">
+        <v>422</v>
+      </c>
+      <c r="D141" t="s">
         <v>421</v>
       </c>
-      <c r="F140" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="E141" t="s">
         <v>422</v>
       </c>
-      <c r="B141" t="s">
+      <c r="F141" t="s">
+        <v>608</v>
+      </c>
+      <c r="G141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>423</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
         <v>424</v>
       </c>
-      <c r="D141" t="s">
-        <v>423</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="C142" t="s">
+        <v>425</v>
+      </c>
+      <c r="D142" t="s">
         <v>424</v>
       </c>
-      <c r="F141" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="E142" t="s">
         <v>425</v>
       </c>
-      <c r="B142" t="s">
+      <c r="F142" t="s">
+        <v>608</v>
+      </c>
+      <c r="G142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>426</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B143" t="s">
         <v>427</v>
       </c>
-      <c r="D142" t="s">
-        <v>426</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="C143" t="s">
+        <v>428</v>
+      </c>
+      <c r="D143" t="s">
         <v>427</v>
       </c>
-      <c r="F142" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="E143" t="s">
         <v>428</v>
       </c>
-      <c r="B143" t="s">
+      <c r="F143" t="s">
+        <v>608</v>
+      </c>
+      <c r="G143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>429</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
         <v>430</v>
       </c>
-      <c r="D143" t="s">
-        <v>429</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="C144" t="s">
+        <v>431</v>
+      </c>
+      <c r="D144" t="s">
         <v>430</v>
       </c>
-      <c r="F143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="E144" t="s">
         <v>431</v>
       </c>
-      <c r="B144" t="s">
+      <c r="F144" t="s">
+        <v>608</v>
+      </c>
+      <c r="G144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>432</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
         <v>433</v>
       </c>
-      <c r="D144" t="s">
-        <v>432</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="C145" t="s">
+        <v>434</v>
+      </c>
+      <c r="D145" t="s">
         <v>433</v>
       </c>
-      <c r="F144" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="E145" t="s">
         <v>434</v>
       </c>
-      <c r="B145" t="s">
+      <c r="F145" t="s">
+        <v>608</v>
+      </c>
+      <c r="G145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>435</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
         <v>436</v>
       </c>
-      <c r="D145" t="s">
-        <v>435</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="C146" t="s">
+        <v>437</v>
+      </c>
+      <c r="D146" t="s">
         <v>436</v>
       </c>
-      <c r="F145" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="E146" t="s">
         <v>437</v>
       </c>
-      <c r="B146" t="s">
+      <c r="F146" t="s">
+        <v>608</v>
+      </c>
+      <c r="G146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>438</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
+        <v>598</v>
+      </c>
+      <c r="C147" t="s">
+        <v>597</v>
+      </c>
+      <c r="D147" t="s">
+        <v>598</v>
+      </c>
+      <c r="E147" t="s">
+        <v>597</v>
+      </c>
+      <c r="F147" t="s">
+        <v>608</v>
+      </c>
+      <c r="G147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>439</v>
       </c>
-      <c r="D146" t="s">
-        <v>438</v>
-      </c>
-      <c r="E146" t="s">
-        <v>439</v>
-      </c>
-      <c r="F146" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B148" t="s">
         <v>440</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C148" t="s">
         <v>441</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D148" t="s">
+        <v>440</v>
+      </c>
+      <c r="E148" t="s">
+        <v>441</v>
+      </c>
+      <c r="F148" t="s">
+        <v>608</v>
+      </c>
+      <c r="G148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>442</v>
       </c>
-      <c r="D147" t="s">
-        <v>441</v>
-      </c>
-      <c r="E147" t="s">
-        <v>442</v>
-      </c>
-      <c r="F147" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B149" t="s">
         <v>443</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C149" t="s">
         <v>444</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D149" t="s">
+        <v>443</v>
+      </c>
+      <c r="E149" t="s">
+        <v>444</v>
+      </c>
+      <c r="F149" t="s">
+        <v>608</v>
+      </c>
+      <c r="G149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>445</v>
       </c>
-      <c r="D148" t="s">
-        <v>444</v>
-      </c>
-      <c r="E148" t="s">
-        <v>445</v>
-      </c>
-      <c r="F148" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B150" t="s">
         <v>446</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C150" t="s">
         <v>447</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D150" t="s">
+        <v>446</v>
+      </c>
+      <c r="E150" t="s">
+        <v>447</v>
+      </c>
+      <c r="F150" t="s">
+        <v>608</v>
+      </c>
+      <c r="G150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>448</v>
       </c>
-      <c r="D149" t="s">
-        <v>447</v>
-      </c>
-      <c r="E149" t="s">
-        <v>448</v>
-      </c>
-      <c r="F149" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B151" t="s">
         <v>449</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C151" t="s">
         <v>450</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D151" t="s">
+        <v>449</v>
+      </c>
+      <c r="E151" t="s">
+        <v>450</v>
+      </c>
+      <c r="F151" t="s">
+        <v>608</v>
+      </c>
+      <c r="G151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>451</v>
       </c>
-      <c r="D150" t="s">
-        <v>450</v>
-      </c>
-      <c r="E150" t="s">
-        <v>451</v>
-      </c>
-      <c r="F150" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="B152" t="s">
         <v>452</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C152" t="s">
         <v>453</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D152" t="s">
+        <v>452</v>
+      </c>
+      <c r="E152" t="s">
+        <v>453</v>
+      </c>
+      <c r="F152" t="s">
+        <v>608</v>
+      </c>
+      <c r="G152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>454</v>
       </c>
-      <c r="D151" t="s">
-        <v>453</v>
-      </c>
-      <c r="E151" t="s">
-        <v>454</v>
-      </c>
-      <c r="F151" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="B153" t="s">
         <v>455</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C153" t="s">
         <v>456</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D153" t="s">
+        <v>455</v>
+      </c>
+      <c r="E153" t="s">
+        <v>456</v>
+      </c>
+      <c r="F153" t="s">
+        <v>608</v>
+      </c>
+      <c r="G153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>457</v>
       </c>
-      <c r="D152" t="s">
-        <v>456</v>
-      </c>
-      <c r="E152" t="s">
-        <v>457</v>
-      </c>
-      <c r="F152" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="B154" t="s">
         <v>458</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C154" t="s">
         <v>459</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D154" t="s">
+        <v>458</v>
+      </c>
+      <c r="E154" t="s">
+        <v>459</v>
+      </c>
+      <c r="F154" t="s">
+        <v>608</v>
+      </c>
+      <c r="G154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>460</v>
       </c>
-      <c r="D153" t="s">
-        <v>459</v>
-      </c>
-      <c r="E153" t="s">
-        <v>460</v>
-      </c>
-      <c r="F153" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="B155" t="s">
         <v>461</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C155" t="s">
         <v>462</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D155" t="s">
+        <v>461</v>
+      </c>
+      <c r="E155" t="s">
+        <v>462</v>
+      </c>
+      <c r="F155" t="s">
+        <v>608</v>
+      </c>
+      <c r="G155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>463</v>
       </c>
-      <c r="D154" t="s">
-        <v>462</v>
-      </c>
-      <c r="E154" t="s">
-        <v>463</v>
-      </c>
-      <c r="F154" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="B156" t="s">
         <v>464</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C156" t="s">
         <v>465</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D156" t="s">
+        <v>464</v>
+      </c>
+      <c r="E156" t="s">
+        <v>465</v>
+      </c>
+      <c r="F156" t="s">
+        <v>608</v>
+      </c>
+      <c r="G156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>466</v>
       </c>
-      <c r="D155" t="s">
-        <v>465</v>
-      </c>
-      <c r="E155" t="s">
-        <v>466</v>
-      </c>
-      <c r="F155" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="B157" t="s">
         <v>467</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C157" t="s">
         <v>468</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D157" t="s">
+        <v>467</v>
+      </c>
+      <c r="E157" t="s">
+        <v>468</v>
+      </c>
+      <c r="F157" t="s">
+        <v>608</v>
+      </c>
+      <c r="G157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>469</v>
       </c>
-      <c r="D156" t="s">
-        <v>468</v>
-      </c>
-      <c r="E156" t="s">
-        <v>469</v>
-      </c>
-      <c r="F156" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="B158" t="s">
         <v>470</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C158" t="s">
         <v>471</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D158" t="s">
+        <v>470</v>
+      </c>
+      <c r="E158" t="s">
+        <v>471</v>
+      </c>
+      <c r="F158" t="s">
+        <v>608</v>
+      </c>
+      <c r="G158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>472</v>
       </c>
-      <c r="D157" t="s">
-        <v>471</v>
-      </c>
-      <c r="E157" t="s">
-        <v>472</v>
-      </c>
-      <c r="F157" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="B159" t="s">
         <v>473</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C159" t="s">
         <v>474</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D159" t="s">
+        <v>473</v>
+      </c>
+      <c r="E159" t="s">
+        <v>474</v>
+      </c>
+      <c r="F159" t="s">
+        <v>608</v>
+      </c>
+      <c r="G159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>475</v>
       </c>
-      <c r="D158" t="s">
-        <v>474</v>
-      </c>
-      <c r="E158" t="s">
-        <v>475</v>
-      </c>
-      <c r="F158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="B160" t="s">
         <v>476</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C160" t="s">
         <v>477</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D160" t="s">
+        <v>476</v>
+      </c>
+      <c r="E160" t="s">
+        <v>477</v>
+      </c>
+      <c r="F160" t="s">
+        <v>608</v>
+      </c>
+      <c r="G160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>478</v>
       </c>
-      <c r="D159" t="s">
-        <v>477</v>
-      </c>
-      <c r="E159" t="s">
-        <v>478</v>
-      </c>
-      <c r="F159" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="B161" t="s">
         <v>479</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C161" t="s">
         <v>480</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D161" t="s">
+        <v>479</v>
+      </c>
+      <c r="E161" t="s">
+        <v>480</v>
+      </c>
+      <c r="F161" t="s">
+        <v>608</v>
+      </c>
+      <c r="G161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>481</v>
       </c>
-      <c r="D160" t="s">
-        <v>480</v>
-      </c>
-      <c r="E160" t="s">
-        <v>481</v>
-      </c>
-      <c r="F160" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="B162" t="s">
         <v>482</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C162" t="s">
         <v>483</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D162" t="s">
+        <v>482</v>
+      </c>
+      <c r="E162" t="s">
+        <v>483</v>
+      </c>
+      <c r="F162" t="s">
+        <v>608</v>
+      </c>
+      <c r="G162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>484</v>
       </c>
-      <c r="D161" t="s">
-        <v>483</v>
-      </c>
-      <c r="E161" t="s">
-        <v>484</v>
-      </c>
-      <c r="F161" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="B163" t="s">
         <v>485</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C163" t="s">
         <v>486</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D163" t="s">
+        <v>485</v>
+      </c>
+      <c r="E163" t="s">
+        <v>486</v>
+      </c>
+      <c r="F163" t="s">
+        <v>608</v>
+      </c>
+      <c r="G163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>487</v>
       </c>
-      <c r="D162" t="s">
-        <v>486</v>
-      </c>
-      <c r="E162" t="s">
-        <v>487</v>
-      </c>
-      <c r="F162" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="B164" t="s">
+        <v>595</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" t="s">
+        <v>593</v>
+      </c>
+      <c r="E164" t="s">
+        <v>594</v>
+      </c>
+      <c r="F164" t="s">
+        <v>608</v>
+      </c>
+      <c r="G164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>488</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B165" t="s">
         <v>489</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C165" t="s">
         <v>490</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D165" t="s">
         <v>489</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E165" t="s">
         <v>490</v>
       </c>
-      <c r="F163" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="F165" t="s">
+        <v>608</v>
+      </c>
+      <c r="G165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>491</v>
       </c>
-      <c r="B164" t="s">
-        <v>605</v>
-      </c>
-      <c r="C164" t="s">
-        <v>168</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="B166" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" t="s">
+        <v>493</v>
+      </c>
+      <c r="D166" t="s">
+        <v>492</v>
+      </c>
+      <c r="E166" t="s">
+        <v>493</v>
+      </c>
+      <c r="F166" t="s">
+        <v>608</v>
+      </c>
+      <c r="G166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" t="s">
+        <v>496</v>
+      </c>
+      <c r="D167" t="s">
+        <v>495</v>
+      </c>
+      <c r="E167" t="s">
+        <v>496</v>
+      </c>
+      <c r="F167" t="s">
+        <v>608</v>
+      </c>
+      <c r="G167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" t="s">
+        <v>498</v>
+      </c>
+      <c r="E168" t="s">
+        <v>499</v>
+      </c>
+      <c r="F168" t="s">
+        <v>608</v>
+      </c>
+      <c r="G168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>500</v>
+      </c>
+      <c r="B169" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" t="s">
+        <v>502</v>
+      </c>
+      <c r="D169" t="s">
+        <v>501</v>
+      </c>
+      <c r="E169" t="s">
+        <v>502</v>
+      </c>
+      <c r="F169" t="s">
+        <v>608</v>
+      </c>
+      <c r="G169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" t="s">
+        <v>505</v>
+      </c>
+      <c r="D170" t="s">
+        <v>504</v>
+      </c>
+      <c r="E170" t="s">
+        <v>505</v>
+      </c>
+      <c r="F170" t="s">
+        <v>608</v>
+      </c>
+      <c r="G170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" t="s">
+        <v>600</v>
+      </c>
+      <c r="C171" t="s">
+        <v>599</v>
+      </c>
+      <c r="D171" t="s">
+        <v>600</v>
+      </c>
+      <c r="E171" t="s">
+        <v>599</v>
+      </c>
+      <c r="F171" t="s">
+        <v>608</v>
+      </c>
+      <c r="G171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>507</v>
+      </c>
+      <c r="B172" t="s">
+        <v>508</v>
+      </c>
+      <c r="C172" t="s">
+        <v>509</v>
+      </c>
+      <c r="D172" t="s">
+        <v>508</v>
+      </c>
+      <c r="E172" t="s">
+        <v>509</v>
+      </c>
+      <c r="F172" t="s">
+        <v>608</v>
+      </c>
+      <c r="G172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>510</v>
+      </c>
+      <c r="B173" t="s">
+        <v>511</v>
+      </c>
+      <c r="C173" t="s">
+        <v>512</v>
+      </c>
+      <c r="D173" t="s">
+        <v>511</v>
+      </c>
+      <c r="E173" t="s">
+        <v>512</v>
+      </c>
+      <c r="F173" t="s">
+        <v>608</v>
+      </c>
+      <c r="G173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>513</v>
+      </c>
+      <c r="B174" t="s">
+        <v>514</v>
+      </c>
+      <c r="C174" t="s">
+        <v>515</v>
+      </c>
+      <c r="D174" t="s">
+        <v>514</v>
+      </c>
+      <c r="E174" t="s">
+        <v>515</v>
+      </c>
+      <c r="F174" t="s">
+        <v>608</v>
+      </c>
+      <c r="G174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>516</v>
+      </c>
+      <c r="B175" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" t="s">
+        <v>518</v>
+      </c>
+      <c r="D175" t="s">
+        <v>517</v>
+      </c>
+      <c r="E175" t="s">
+        <v>518</v>
+      </c>
+      <c r="F175" t="s">
+        <v>608</v>
+      </c>
+      <c r="G175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>519</v>
+      </c>
+      <c r="B176" t="s">
+        <v>520</v>
+      </c>
+      <c r="C176" t="s">
+        <v>521</v>
+      </c>
+      <c r="D176" t="s">
+        <v>520</v>
+      </c>
+      <c r="E176" t="s">
+        <v>521</v>
+      </c>
+      <c r="F176" t="s">
+        <v>608</v>
+      </c>
+      <c r="G176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>522</v>
+      </c>
+      <c r="B177" t="s">
+        <v>523</v>
+      </c>
+      <c r="C177" t="s">
+        <v>524</v>
+      </c>
+      <c r="D177" t="s">
+        <v>523</v>
+      </c>
+      <c r="E177" t="s">
+        <v>524</v>
+      </c>
+      <c r="F177" t="s">
+        <v>608</v>
+      </c>
+      <c r="G177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>525</v>
+      </c>
+      <c r="B178" t="s">
+        <v>604</v>
+      </c>
+      <c r="C178" t="s">
         <v>603</v>
       </c>
-      <c r="E164" t="s">
+      <c r="D178" t="s">
         <v>604</v>
       </c>
-      <c r="F164" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>492</v>
-      </c>
-      <c r="B165" t="s">
-        <v>493</v>
-      </c>
-      <c r="C165" t="s">
-        <v>494</v>
-      </c>
-      <c r="D165" t="s">
-        <v>493</v>
-      </c>
-      <c r="E165" t="s">
-        <v>494</v>
-      </c>
-      <c r="F165" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>495</v>
-      </c>
-      <c r="B166" t="s">
-        <v>496</v>
-      </c>
-      <c r="C166" t="s">
-        <v>497</v>
-      </c>
-      <c r="D166" t="s">
-        <v>496</v>
-      </c>
-      <c r="E166" t="s">
-        <v>497</v>
-      </c>
-      <c r="F166" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>498</v>
-      </c>
-      <c r="B167" t="s">
-        <v>499</v>
-      </c>
-      <c r="C167" t="s">
-        <v>500</v>
-      </c>
-      <c r="D167" t="s">
-        <v>499</v>
-      </c>
-      <c r="E167" t="s">
-        <v>500</v>
-      </c>
-      <c r="F167" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>501</v>
-      </c>
-      <c r="B168" t="s">
-        <v>502</v>
-      </c>
-      <c r="C168" t="s">
-        <v>503</v>
-      </c>
-      <c r="D168" t="s">
-        <v>502</v>
-      </c>
-      <c r="E168" t="s">
-        <v>503</v>
-      </c>
-      <c r="F168" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>504</v>
-      </c>
-      <c r="B169" t="s">
-        <v>505</v>
-      </c>
-      <c r="C169" t="s">
-        <v>506</v>
-      </c>
-      <c r="D169" t="s">
-        <v>505</v>
-      </c>
-      <c r="E169" t="s">
-        <v>506</v>
-      </c>
-      <c r="F169" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>507</v>
-      </c>
-      <c r="B170" t="s">
-        <v>508</v>
-      </c>
-      <c r="C170" t="s">
-        <v>509</v>
-      </c>
-      <c r="D170" t="s">
-        <v>508</v>
-      </c>
-      <c r="E170" t="s">
-        <v>509</v>
-      </c>
-      <c r="F170" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>510</v>
-      </c>
-      <c r="B171" t="s">
-        <v>511</v>
-      </c>
-      <c r="C171" t="s">
-        <v>512</v>
-      </c>
-      <c r="D171" t="s">
-        <v>511</v>
-      </c>
-      <c r="E171" t="s">
-        <v>512</v>
-      </c>
-      <c r="F171" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>513</v>
-      </c>
-      <c r="B172" t="s">
-        <v>514</v>
-      </c>
-      <c r="C172" t="s">
-        <v>515</v>
-      </c>
-      <c r="D172" t="s">
-        <v>514</v>
-      </c>
-      <c r="E172" t="s">
-        <v>515</v>
-      </c>
-      <c r="F172" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>516</v>
-      </c>
-      <c r="B173" t="s">
-        <v>517</v>
-      </c>
-      <c r="C173" t="s">
-        <v>518</v>
-      </c>
-      <c r="D173" t="s">
-        <v>517</v>
-      </c>
-      <c r="E173" t="s">
-        <v>518</v>
-      </c>
-      <c r="F173" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>519</v>
-      </c>
-      <c r="B174" t="s">
-        <v>520</v>
-      </c>
-      <c r="C174" t="s">
-        <v>521</v>
-      </c>
-      <c r="D174" t="s">
-        <v>520</v>
-      </c>
-      <c r="E174" t="s">
-        <v>521</v>
-      </c>
-      <c r="F174" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>522</v>
-      </c>
-      <c r="B175" t="s">
-        <v>523</v>
-      </c>
-      <c r="C175" t="s">
-        <v>524</v>
-      </c>
-      <c r="D175" t="s">
-        <v>523</v>
-      </c>
-      <c r="E175" t="s">
-        <v>524</v>
-      </c>
-      <c r="F175" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>525</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="E178" t="s">
+        <v>603</v>
+      </c>
+      <c r="F178" t="s">
+        <v>608</v>
+      </c>
+      <c r="G178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>526</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B179" t="s">
         <v>527</v>
       </c>
-      <c r="D176" t="s">
-        <v>526</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="C179" t="s">
+        <v>528</v>
+      </c>
+      <c r="D179" t="s">
         <v>527</v>
       </c>
-      <c r="F176" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="E179" t="s">
         <v>528</v>
       </c>
-      <c r="B177" t="s">
+      <c r="F179" t="s">
+        <v>608</v>
+      </c>
+      <c r="G179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>529</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B180" t="s">
         <v>530</v>
       </c>
-      <c r="D177" t="s">
-        <v>529</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="C180" t="s">
+        <v>531</v>
+      </c>
+      <c r="D180" t="s">
         <v>530</v>
       </c>
-      <c r="F177" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="E180" t="s">
         <v>531</v>
       </c>
-      <c r="B178" t="s">
+      <c r="F180" t="s">
+        <v>608</v>
+      </c>
+      <c r="G180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>532</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B181" t="s">
+        <v>602</v>
+      </c>
+      <c r="C181" t="s">
+        <v>601</v>
+      </c>
+      <c r="D181" t="s">
+        <v>602</v>
+      </c>
+      <c r="E181" t="s">
+        <v>601</v>
+      </c>
+      <c r="F181" t="s">
+        <v>608</v>
+      </c>
+      <c r="G181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>533</v>
       </c>
-      <c r="D178" t="s">
-        <v>532</v>
-      </c>
-      <c r="E178" t="s">
-        <v>533</v>
-      </c>
-      <c r="F178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="B182" t="s">
         <v>534</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C182" t="s">
         <v>535</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E182" t="s">
+        <v>535</v>
+      </c>
+      <c r="F182" t="s">
+        <v>608</v>
+      </c>
+      <c r="G182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>536</v>
       </c>
-      <c r="D179" t="s">
-        <v>535</v>
-      </c>
-      <c r="E179" t="s">
-        <v>536</v>
-      </c>
-      <c r="F179" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="B183" t="s">
         <v>537</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C183" t="s">
         <v>538</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D183" t="s">
+        <v>537</v>
+      </c>
+      <c r="E183" t="s">
+        <v>538</v>
+      </c>
+      <c r="F183" t="s">
+        <v>608</v>
+      </c>
+      <c r="G183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>539</v>
       </c>
-      <c r="D180" t="s">
-        <v>538</v>
-      </c>
-      <c r="E180" t="s">
-        <v>539</v>
-      </c>
-      <c r="F180" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B184" t="s">
         <v>540</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C184" t="s">
         <v>541</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D184" t="s">
+        <v>540</v>
+      </c>
+      <c r="E184" t="s">
+        <v>541</v>
+      </c>
+      <c r="F184" t="s">
+        <v>608</v>
+      </c>
+      <c r="G184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>542</v>
       </c>
-      <c r="D181" t="s">
-        <v>541</v>
-      </c>
-      <c r="E181" t="s">
-        <v>542</v>
-      </c>
-      <c r="F181" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="B185" t="s">
         <v>543</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C185" t="s">
         <v>544</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D185" t="s">
+        <v>543</v>
+      </c>
+      <c r="E185" t="s">
+        <v>544</v>
+      </c>
+      <c r="F185" t="s">
+        <v>608</v>
+      </c>
+      <c r="G185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>545</v>
       </c>
-      <c r="D182" t="s">
-        <v>544</v>
-      </c>
-      <c r="E182" t="s">
-        <v>545</v>
-      </c>
-      <c r="F182" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="B186" t="s">
         <v>546</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C186" t="s">
         <v>547</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D186" t="s">
+        <v>546</v>
+      </c>
+      <c r="E186" t="s">
+        <v>547</v>
+      </c>
+      <c r="F186" t="s">
+        <v>608</v>
+      </c>
+      <c r="G186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>548</v>
       </c>
-      <c r="D183" t="s">
-        <v>547</v>
-      </c>
-      <c r="E183" t="s">
-        <v>548</v>
-      </c>
-      <c r="F183" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="B187" t="s">
         <v>549</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C187" t="s">
         <v>550</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D187" t="s">
+        <v>549</v>
+      </c>
+      <c r="E187" t="s">
+        <v>550</v>
+      </c>
+      <c r="F187" t="s">
+        <v>608</v>
+      </c>
+      <c r="G187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>551</v>
       </c>
-      <c r="D184" t="s">
-        <v>550</v>
-      </c>
-      <c r="E184" t="s">
-        <v>551</v>
-      </c>
-      <c r="F184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="B188" t="s">
         <v>552</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C188" t="s">
         <v>553</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D188" t="s">
+        <v>552</v>
+      </c>
+      <c r="E188" t="s">
+        <v>553</v>
+      </c>
+      <c r="F188" t="s">
+        <v>608</v>
+      </c>
+      <c r="G188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>554</v>
       </c>
-      <c r="D185" t="s">
-        <v>553</v>
-      </c>
-      <c r="E185" t="s">
-        <v>554</v>
-      </c>
-      <c r="F185" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="B189" t="s">
         <v>555</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C189" t="s">
         <v>556</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D189" t="s">
+        <v>555</v>
+      </c>
+      <c r="E189" t="s">
+        <v>556</v>
+      </c>
+      <c r="F189" t="s">
+        <v>608</v>
+      </c>
+      <c r="G189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>557</v>
       </c>
-      <c r="D186" t="s">
-        <v>556</v>
-      </c>
-      <c r="E186" t="s">
-        <v>557</v>
-      </c>
-      <c r="F186" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="B190" t="s">
         <v>558</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C190" t="s">
         <v>559</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D190" t="s">
+        <v>558</v>
+      </c>
+      <c r="E190" t="s">
+        <v>559</v>
+      </c>
+      <c r="F190" t="s">
+        <v>608</v>
+      </c>
+      <c r="G190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>560</v>
       </c>
-      <c r="D187" t="s">
-        <v>559</v>
-      </c>
-      <c r="E187" t="s">
-        <v>560</v>
-      </c>
-      <c r="F187" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="B191" t="s">
         <v>561</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C191" t="s">
         <v>562</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D191" t="s">
+        <v>561</v>
+      </c>
+      <c r="E191" t="s">
+        <v>562</v>
+      </c>
+      <c r="F191" t="s">
+        <v>608</v>
+      </c>
+      <c r="G191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>563</v>
       </c>
-      <c r="D188" t="s">
-        <v>562</v>
-      </c>
-      <c r="E188" t="s">
-        <v>563</v>
-      </c>
-      <c r="F188" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="B192" t="s">
         <v>564</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C192" t="s">
         <v>565</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D192" t="s">
+        <v>564</v>
+      </c>
+      <c r="E192" t="s">
+        <v>565</v>
+      </c>
+      <c r="F192" t="s">
+        <v>608</v>
+      </c>
+      <c r="G192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>566</v>
       </c>
-      <c r="D189" t="s">
-        <v>565</v>
-      </c>
-      <c r="E189" t="s">
-        <v>566</v>
-      </c>
-      <c r="F189" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="B193" t="s">
         <v>567</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C193" t="s">
         <v>568</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D193" t="s">
+        <v>567</v>
+      </c>
+      <c r="E193" t="s">
+        <v>568</v>
+      </c>
+      <c r="F193" t="s">
+        <v>608</v>
+      </c>
+      <c r="G193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>569</v>
       </c>
-      <c r="D190" t="s">
-        <v>568</v>
-      </c>
-      <c r="E190" t="s">
-        <v>569</v>
-      </c>
-      <c r="F190" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="B194" t="s">
         <v>570</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C194" t="s">
         <v>571</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D194" t="s">
+        <v>570</v>
+      </c>
+      <c r="E194" t="s">
+        <v>571</v>
+      </c>
+      <c r="F194" t="s">
+        <v>608</v>
+      </c>
+      <c r="G194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>572</v>
       </c>
-      <c r="D191" t="s">
-        <v>571</v>
-      </c>
-      <c r="E191" t="s">
-        <v>572</v>
-      </c>
-      <c r="F191" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="B195" t="s">
         <v>573</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C195" t="s">
         <v>574</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D195" t="s">
+        <v>573</v>
+      </c>
+      <c r="E195" t="s">
+        <v>574</v>
+      </c>
+      <c r="F195" t="s">
+        <v>608</v>
+      </c>
+      <c r="G195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>575</v>
       </c>
-      <c r="D192" t="s">
-        <v>574</v>
-      </c>
-      <c r="E192" t="s">
-        <v>575</v>
-      </c>
-      <c r="F192" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="B196" t="s">
         <v>576</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C196" t="s">
         <v>577</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D196" t="s">
+        <v>576</v>
+      </c>
+      <c r="E196" t="s">
+        <v>577</v>
+      </c>
+      <c r="F196" t="s">
+        <v>608</v>
+      </c>
+      <c r="G196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>578</v>
       </c>
-      <c r="D193" t="s">
-        <v>577</v>
-      </c>
-      <c r="E193" t="s">
-        <v>578</v>
-      </c>
-      <c r="F193" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="B197" t="s">
         <v>579</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C197" t="s">
         <v>580</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D197" t="s">
+        <v>579</v>
+      </c>
+      <c r="E197" t="s">
+        <v>580</v>
+      </c>
+      <c r="F197" t="s">
+        <v>608</v>
+      </c>
+      <c r="G197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>581</v>
       </c>
-      <c r="D194" t="s">
-        <v>580</v>
-      </c>
-      <c r="E194" t="s">
-        <v>581</v>
-      </c>
-      <c r="F194" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="B198" t="s">
         <v>582</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C198" t="s">
         <v>583</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D198" t="s">
+        <v>582</v>
+      </c>
+      <c r="E198" t="s">
+        <v>583</v>
+      </c>
+      <c r="F198" t="s">
+        <v>608</v>
+      </c>
+      <c r="G198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>584</v>
       </c>
-      <c r="D195" t="s">
-        <v>583</v>
-      </c>
-      <c r="E195" t="s">
-        <v>584</v>
-      </c>
-      <c r="F195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="B199" t="s">
         <v>585</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C199" t="s">
         <v>586</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D199" t="s">
+        <v>585</v>
+      </c>
+      <c r="E199" t="s">
+        <v>586</v>
+      </c>
+      <c r="F199" t="s">
+        <v>608</v>
+      </c>
+      <c r="G199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>587</v>
       </c>
-      <c r="D196" t="s">
-        <v>586</v>
-      </c>
-      <c r="E196" t="s">
-        <v>587</v>
-      </c>
-      <c r="F196" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="B200" t="s">
         <v>588</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C200" t="s">
         <v>589</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D200" t="s">
+        <v>588</v>
+      </c>
+      <c r="E200" t="s">
+        <v>589</v>
+      </c>
+      <c r="F200" t="s">
+        <v>608</v>
+      </c>
+      <c r="G200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>590</v>
       </c>
-      <c r="D197" t="s">
-        <v>589</v>
-      </c>
-      <c r="E197" t="s">
-        <v>590</v>
-      </c>
-      <c r="F197" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="B201" t="s">
         <v>591</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C201" t="s">
         <v>592</v>
       </c>
-      <c r="C198" t="s">
-        <v>593</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="D201" t="s">
+        <v>591</v>
+      </c>
+      <c r="E201" t="s">
         <v>592</v>
       </c>
-      <c r="E198" t="s">
-        <v>593</v>
-      </c>
-      <c r="F198" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>594</v>
-      </c>
-      <c r="B199" t="s">
-        <v>595</v>
-      </c>
-      <c r="C199" t="s">
-        <v>596</v>
-      </c>
-      <c r="D199" t="s">
-        <v>595</v>
-      </c>
-      <c r="E199" t="s">
-        <v>596</v>
-      </c>
-      <c r="F199" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>597</v>
-      </c>
-      <c r="B200" t="s">
-        <v>598</v>
-      </c>
-      <c r="C200" t="s">
-        <v>599</v>
-      </c>
-      <c r="D200" t="s">
-        <v>598</v>
-      </c>
-      <c r="E200" t="s">
-        <v>599</v>
-      </c>
-      <c r="F200" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>600</v>
-      </c>
-      <c r="B201" t="s">
-        <v>601</v>
-      </c>
-      <c r="C201" t="s">
-        <v>602</v>
-      </c>
-      <c r="D201" t="s">
-        <v>601</v>
-      </c>
-      <c r="E201" t="s">
-        <v>602</v>
-      </c>
       <c r="F201" t="s">
+        <v>608</v>
+      </c>
+      <c r="G201" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A202:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A201">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A201">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D5 D148:D170 D172:D177 D182:D1048576 D179:D180 D7:D146">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A201">
+  <conditionalFormatting sqref="D147">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A201">
+  <conditionalFormatting sqref="D171">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="D181">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="D178">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
